--- a/SS_dataV7.xlsx
+++ b/SS_dataV7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A3DCD0F-B799-45FB-A398-A890798C28FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC192F3-9FB6-4171-A3B8-CBA2063A9A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="-276" windowWidth="23256" windowHeight="12576" tabRatio="897" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <sheet name="SingleConstants" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="38">
   <si>
     <t>j</t>
   </si>
@@ -145,6 +144,24 @@
   <si>
     <t>Efficiency</t>
   </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processing </t>
+  </si>
 </sst>
 </file>
 
@@ -159,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +249,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -297,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -394,6 +417,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -734,17 +775,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
-  <dimension ref="A2:V6"/>
+  <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.21875" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="20.21875" customWidth="1"/>
     <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
@@ -752,16 +793,26 @@
     <col min="11" max="11" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.77734375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" customWidth="1"/>
     <col min="15" max="15" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" customWidth="1"/>
     <col min="19" max="19" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="22.5546875" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="22.5546875" customWidth="1"/>
+    <col min="23" max="23" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -796,8 +847,26 @@
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
+      <c r="W2" s="44">
+        <v>6</v>
+      </c>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="44">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="44">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="46"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -862,8 +931,44 @@
       <c r="V3" s="7">
         <v>4</v>
       </c>
+      <c r="W3" s="12">
+        <v>1</v>
+      </c>
+      <c r="X3" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -930,8 +1035,44 @@
       <c r="V4" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="W4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -996,8 +1137,44 @@
       <c r="V5" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="W5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>3</v>
@@ -1062,9 +1239,48 @@
       <c r="V6" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="W6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="C2:F2"/>
@@ -1077,15 +1293,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
-  <dimension ref="A2:V6"/>
+  <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="W2" sqref="W2:AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>24</v>
@@ -1120,8 +1336,26 @@
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
+      <c r="W2" s="44">
+        <v>6</v>
+      </c>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="44">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="44">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="46"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -1186,8 +1420,44 @@
       <c r="V3" s="15">
         <v>4</v>
       </c>
+      <c r="W3" s="12">
+        <v>1</v>
+      </c>
+      <c r="X3" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1195,200 +1465,311 @@
         <v>1</v>
       </c>
       <c r="C4" s="9">
-        <v>500</v>
+        <v>3267</v>
       </c>
       <c r="D4" s="9">
-        <v>1200</v>
+        <v>8122</v>
       </c>
       <c r="E4" s="15">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="F4" s="15">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G4" s="9">
-        <v>5000</v>
+        <v>128</v>
       </c>
       <c r="H4" s="9">
-        <v>1200</v>
+        <v>8122</v>
       </c>
       <c r="I4" s="9">
-        <v>500</v>
+        <v>3267</v>
       </c>
       <c r="J4" s="9">
-        <v>5000</v>
+        <v>128</v>
       </c>
       <c r="K4" s="9">
-        <v>1200</v>
+        <v>1183</v>
       </c>
       <c r="L4" s="9">
-        <v>5000</v>
+        <v>128</v>
       </c>
       <c r="M4" s="9">
-        <v>1200</v>
+        <v>1183</v>
       </c>
       <c r="N4" s="15">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="O4" s="9">
-        <v>500</v>
+        <v>9000</v>
       </c>
       <c r="P4" s="9">
-        <v>1200</v>
+        <v>1183</v>
       </c>
       <c r="Q4" s="9">
-        <v>500</v>
+        <v>3267</v>
       </c>
       <c r="R4" s="15">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="S4" s="9">
-        <v>500</v>
+        <v>9000</v>
       </c>
       <c r="T4" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U4" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V4" s="15">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W4" s="9">
+        <v>20</v>
+      </c>
+      <c r="X4" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>20</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>20</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>20</v>
+      </c>
+      <c r="AH4" s="15">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>2</v>
       </c>
       <c r="C5" s="9">
-        <v>200</v>
+        <v>2218</v>
       </c>
       <c r="D5" s="9">
+        <v>1865</v>
+      </c>
+      <c r="E5" s="15">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G5" s="9">
+        <v>128</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1865</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2218</v>
+      </c>
+      <c r="J5" s="9">
+        <v>128</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1183</v>
+      </c>
+      <c r="L5" s="9">
+        <v>128</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1183</v>
+      </c>
+      <c r="N5" s="15">
         <v>1000</v>
       </c>
-      <c r="E5" s="15">
-        <v>5</v>
-      </c>
-      <c r="F5" s="15">
-        <v>5</v>
-      </c>
-      <c r="G5" s="9">
-        <v>3000</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="O5" s="15">
         <v>1000</v>
       </c>
-      <c r="I5" s="9">
-        <v>200</v>
-      </c>
-      <c r="J5" s="9">
-        <v>3000</v>
-      </c>
-      <c r="K5" s="9">
-        <v>1800</v>
-      </c>
-      <c r="L5" s="9">
-        <v>3000</v>
-      </c>
-      <c r="M5" s="9">
-        <v>1800</v>
-      </c>
-      <c r="N5" s="15">
-        <v>5</v>
-      </c>
-      <c r="O5" s="15">
-        <v>5</v>
-      </c>
       <c r="P5" s="9">
-        <v>1800</v>
+        <v>1183</v>
       </c>
       <c r="Q5" s="9">
-        <v>200</v>
+        <v>2218</v>
       </c>
       <c r="R5" s="15">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="S5" s="16">
-        <v>5</v>
+        <v>9000</v>
       </c>
       <c r="T5" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U5" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V5" s="15">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W5" s="9">
+        <v>60</v>
+      </c>
+      <c r="X5" s="9">
+        <v>60</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>60</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>60</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>60</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>60</v>
+      </c>
+      <c r="AF5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AH5" s="15">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>3</v>
       </c>
       <c r="C6" s="15">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="15">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="E6" s="15">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="F6" s="15">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G6" s="9">
-        <v>6000</v>
+        <v>128</v>
       </c>
       <c r="H6" s="15">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="I6" s="15">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="J6" s="9">
-        <v>6000</v>
+        <v>128</v>
       </c>
       <c r="K6" s="9">
-        <v>2000</v>
+        <v>1183</v>
       </c>
       <c r="L6" s="9">
-        <v>6000</v>
+        <v>128</v>
       </c>
       <c r="M6" s="9">
-        <v>2000</v>
+        <v>1183</v>
       </c>
       <c r="N6" s="15">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="O6" s="15">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="P6" s="9">
-        <v>2000</v>
+        <v>1183</v>
       </c>
       <c r="Q6" s="15">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="R6" s="15">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="S6" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U6" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V6" s="15">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W6" s="15">
+        <v>10</v>
+      </c>
+      <c r="X6" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>60</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="15">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
@@ -1401,15 +1782,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A28449-D94E-4909-B508-C0F95C8C63AA}">
-  <dimension ref="A2:V6"/>
+  <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="W2" sqref="W2:AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>24</v>
@@ -1444,8 +1825,26 @@
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
+      <c r="W2" s="44">
+        <v>6</v>
+      </c>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="44">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="44">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="46"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -1510,8 +1909,44 @@
       <c r="V3" s="15">
         <v>4</v>
       </c>
+      <c r="W3" s="12">
+        <v>1</v>
+      </c>
+      <c r="X3" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1538,8 +1973,20 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="15"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>2</v>
@@ -1564,8 +2011,20 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>3</v>
@@ -1590,9 +2049,24 @@
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
@@ -1605,15 +2079,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F286E7-365E-4CD4-97CA-BA6EEF12D309}">
-  <dimension ref="A2:V6"/>
+  <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>24</v>
@@ -1648,8 +2122,26 @@
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
+      <c r="W2" s="44">
+        <v>6</v>
+      </c>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="44">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="44">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="46"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -1714,89 +2206,356 @@
       <c r="V3" s="15">
         <v>4</v>
       </c>
+      <c r="W3" s="12">
+        <v>1</v>
+      </c>
+      <c r="X3" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
+      <c r="C4" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="15">
+        <v>1</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="15">
+        <v>1</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="15">
+        <v>1</v>
+      </c>
+      <c r="U4" s="15">
+        <v>1</v>
+      </c>
+      <c r="V4" s="15">
+        <v>1</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH4" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
+      <c r="C5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="15">
+        <v>1</v>
+      </c>
+      <c r="O5" s="15">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="15">
+        <v>1</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="15">
+        <v>1</v>
+      </c>
+      <c r="U5" s="15">
+        <v>1</v>
+      </c>
+      <c r="V5" s="15">
+        <v>1</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="15">
+        <v>1</v>
+      </c>
+      <c r="O6" s="15">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>1</v>
+      </c>
+      <c r="R6" s="15">
+        <v>1</v>
+      </c>
+      <c r="S6" s="15">
+        <v>1</v>
+      </c>
+      <c r="T6" s="15">
+        <v>1</v>
+      </c>
+      <c r="U6" s="15">
+        <v>1</v>
+      </c>
+      <c r="V6" s="15">
+        <v>1</v>
+      </c>
+      <c r="W6" s="15">
+        <v>1</v>
+      </c>
+      <c r="X6" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="15">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
@@ -1812,7 +2571,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C8"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1889,7 +2648,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C8"/>
+      <selection activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1966,7 +2725,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C8"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2043,7 +2802,7 @@
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2095,10 +2854,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A225510A-AA85-4DB0-9F23-80E69C775E1F}">
-  <dimension ref="A3:C7"/>
+  <dimension ref="A3:AK32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2131,10 +2890,21 @@
       <c r="A6" t="s">
         <v>30</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="37:37" x14ac:dyDescent="0.3">
+      <c r="AK32" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2917,7 @@
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2250,22 +3020,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
-  <dimension ref="A2:BJ9"/>
+  <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BK2" sqref="BK2:CT9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="8" width="8.88671875" customWidth="1"/>
-    <col min="9" max="14" width="8.88671875" style="8" hidden="1" customWidth="1"/>
-    <col min="36" max="38" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="48" max="50" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="54" max="62" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="8.88671875" style="8" customWidth="1"/>
+    <col min="36" max="38" width="8.88671875" style="8" customWidth="1"/>
+    <col min="48" max="50" width="8.88671875" style="8" customWidth="1"/>
+    <col min="54" max="62" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>24</v>
@@ -2340,8 +3110,50 @@
       <c r="BH2" s="18"/>
       <c r="BI2" s="18"/>
       <c r="BJ2" s="19"/>
+      <c r="BK2" s="44">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="45"/>
+      <c r="BM2" s="45"/>
+      <c r="BN2" s="45"/>
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="45"/>
+      <c r="BQ2" s="45"/>
+      <c r="BR2" s="45"/>
+      <c r="BS2" s="45"/>
+      <c r="BT2" s="45"/>
+      <c r="BU2" s="45"/>
+      <c r="BV2" s="46"/>
+      <c r="BW2" s="44">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="45"/>
+      <c r="BY2" s="45"/>
+      <c r="BZ2" s="45"/>
+      <c r="CA2" s="45"/>
+      <c r="CB2" s="45"/>
+      <c r="CC2" s="45"/>
+      <c r="CD2" s="45"/>
+      <c r="CE2" s="45"/>
+      <c r="CF2" s="45"/>
+      <c r="CG2" s="45"/>
+      <c r="CH2" s="46"/>
+      <c r="CI2" s="44">
+        <v>8</v>
+      </c>
+      <c r="CJ2" s="45"/>
+      <c r="CK2" s="45"/>
+      <c r="CL2" s="45"/>
+      <c r="CM2" s="45"/>
+      <c r="CN2" s="45"/>
+      <c r="CO2" s="45"/>
+      <c r="CP2" s="45"/>
+      <c r="CQ2" s="45"/>
+      <c r="CR2" s="45"/>
+      <c r="CS2" s="45"/>
+      <c r="CT2" s="46"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -2446,8 +3258,116 @@
       </c>
       <c r="BI3" s="30"/>
       <c r="BJ3" s="30"/>
+      <c r="BK3" s="39">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="39">
+        <v>3.14685314685314</v>
+      </c>
+      <c r="BM3" s="39">
+        <v>3.1818181818181799</v>
+      </c>
+      <c r="BN3" s="39">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="39">
+        <v>3.2517482517482499</v>
+      </c>
+      <c r="BP3" s="39">
+        <v>3.28671328671328</v>
+      </c>
+      <c r="BQ3" s="39">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="39">
+        <v>3.35664335664335</v>
+      </c>
+      <c r="BS3" s="39">
+        <v>3.3916083916083899</v>
+      </c>
+      <c r="BT3" s="47">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="48">
+        <v>3.4615384615384599</v>
+      </c>
+      <c r="BV3" s="49">
+        <v>3.49650349650349</v>
+      </c>
+      <c r="BW3" s="39">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="39">
+        <v>3.14685314685314</v>
+      </c>
+      <c r="BY3" s="39">
+        <v>3.1818181818181799</v>
+      </c>
+      <c r="BZ3" s="39">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="39">
+        <v>3.2517482517482499</v>
+      </c>
+      <c r="CB3" s="39">
+        <v>3.28671328671328</v>
+      </c>
+      <c r="CC3" s="39">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="39">
+        <v>3.35664335664335</v>
+      </c>
+      <c r="CE3" s="39">
+        <v>3.3916083916083899</v>
+      </c>
+      <c r="CF3" s="47">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="48">
+        <v>3.4615384615384599</v>
+      </c>
+      <c r="CH3" s="49">
+        <v>3.49650349650349</v>
+      </c>
+      <c r="CI3" s="39">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="39">
+        <v>3.14685314685314</v>
+      </c>
+      <c r="CK3" s="39">
+        <v>3.1818181818181799</v>
+      </c>
+      <c r="CL3" s="39">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="39">
+        <v>3.2517482517482499</v>
+      </c>
+      <c r="CN3" s="39">
+        <v>3.28671328671328</v>
+      </c>
+      <c r="CO3" s="39">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="39">
+        <v>3.35664335664335</v>
+      </c>
+      <c r="CQ3" s="39">
+        <v>3.3916083916083899</v>
+      </c>
+      <c r="CR3" s="47">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="48">
+        <v>3.4615384615384599</v>
+      </c>
+      <c r="CT3" s="49">
+        <v>3.49650349650349</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -2634,8 +3554,116 @@
       <c r="BJ4" s="14">
         <v>3</v>
       </c>
+      <c r="BK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CT4" s="12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -2822,8 +3850,116 @@
       <c r="BJ5" s="15">
         <v>1</v>
       </c>
+      <c r="BK5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="BM5" s="15">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="BP5" s="15">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="BS5" s="15">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="15">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="15">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="15">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="CB5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CE5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CG5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CH5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>1</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>1</v>
+      </c>
+      <c r="CK5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CN5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CQ5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CR5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CS5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CT5" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -3010,8 +4146,116 @@
       <c r="BJ6" s="15">
         <v>1</v>
       </c>
+      <c r="BK6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="BM6" s="15">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="BP6" s="15">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="BS6" s="15">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="15">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="15">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="15">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>1</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="CB6" s="15">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="15">
+        <v>1</v>
+      </c>
+      <c r="CE6" s="15">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="15">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="15">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="15">
+        <v>1</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="9">
+        <v>1</v>
+      </c>
+      <c r="CK6" s="15">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="15">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="15">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="15">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="15">
+        <v>1</v>
+      </c>
+      <c r="CR6" s="15">
+        <v>1</v>
+      </c>
+      <c r="CS6" s="15">
+        <v>1</v>
+      </c>
+      <c r="CT6" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -3198,8 +4442,116 @@
       <c r="BJ7" s="15">
         <v>1</v>
       </c>
+      <c r="BK7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="15">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="15">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="15">
+        <v>1</v>
+      </c>
+      <c r="BT7" s="15">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="15">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="15">
+        <v>1</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BX7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="15">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="15">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="15">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="15">
+        <v>1</v>
+      </c>
+      <c r="CG7" s="15">
+        <v>1</v>
+      </c>
+      <c r="CH7" s="15">
+        <v>1</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CK7" s="15">
+        <v>1</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM7" s="15">
+        <v>1</v>
+      </c>
+      <c r="CN7" s="15">
+        <v>1</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP7" s="15">
+        <v>1</v>
+      </c>
+      <c r="CQ7" s="15">
+        <v>1</v>
+      </c>
+      <c r="CR7" s="15">
+        <v>1</v>
+      </c>
+      <c r="CS7" s="15">
+        <v>1</v>
+      </c>
+      <c r="CT7" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -3386,8 +4738,116 @@
       <c r="BJ8" s="15">
         <v>1</v>
       </c>
+      <c r="BK8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="9">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="15">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="9">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="15">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="15">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="15">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="15">
+        <v>1</v>
+      </c>
+      <c r="CH8" s="15">
+        <v>1</v>
+      </c>
+      <c r="CI8" s="9">
+        <v>1</v>
+      </c>
+      <c r="CJ8" s="9">
+        <v>1</v>
+      </c>
+      <c r="CK8" s="15">
+        <v>1</v>
+      </c>
+      <c r="CL8" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM8" s="15">
+        <v>1</v>
+      </c>
+      <c r="CN8" s="15">
+        <v>1</v>
+      </c>
+      <c r="CO8" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP8" s="15">
+        <v>1</v>
+      </c>
+      <c r="CQ8" s="15">
+        <v>1</v>
+      </c>
+      <c r="CR8" s="15">
+        <v>1</v>
+      </c>
+      <c r="CS8" s="15">
+        <v>1</v>
+      </c>
+      <c r="CT8" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -3574,9 +5034,132 @@
       <c r="BJ9" s="15">
         <v>1</v>
       </c>
+      <c r="BK9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BQ9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BR9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BT9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BU9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BV9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BW9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BX9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BY9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="9">
+        <v>1</v>
+      </c>
+      <c r="CA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="15">
+        <v>1</v>
+      </c>
+      <c r="CC9" s="9">
+        <v>1</v>
+      </c>
+      <c r="CD9" s="15">
+        <v>1</v>
+      </c>
+      <c r="CE9" s="15">
+        <v>1</v>
+      </c>
+      <c r="CF9" s="15">
+        <v>1</v>
+      </c>
+      <c r="CG9" s="15">
+        <v>1</v>
+      </c>
+      <c r="CH9" s="15">
+        <v>1</v>
+      </c>
+      <c r="CI9" s="9">
+        <v>1</v>
+      </c>
+      <c r="CJ9" s="9">
+        <v>1</v>
+      </c>
+      <c r="CK9" s="15">
+        <v>1</v>
+      </c>
+      <c r="CL9" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM9" s="15">
+        <v>1</v>
+      </c>
+      <c r="CN9" s="15">
+        <v>1</v>
+      </c>
+      <c r="CO9" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP9" s="15">
+        <v>1</v>
+      </c>
+      <c r="CQ9" s="15">
+        <v>1</v>
+      </c>
+      <c r="CR9" s="15">
+        <v>1</v>
+      </c>
+      <c r="CS9" s="15">
+        <v>1</v>
+      </c>
+      <c r="CT9" s="15">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="U3:W3"/>
@@ -3609,10 +5192,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
-  <dimension ref="A2:BJ9"/>
+  <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BX27" sqref="BX27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3631,7 +5214,7 @@
     <col min="63" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>24</v>
@@ -3706,8 +5289,50 @@
       <c r="BH2" s="18"/>
       <c r="BI2" s="18"/>
       <c r="BJ2" s="19"/>
+      <c r="BK2" s="44">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="45"/>
+      <c r="BM2" s="45"/>
+      <c r="BN2" s="45"/>
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="45"/>
+      <c r="BQ2" s="45"/>
+      <c r="BR2" s="45"/>
+      <c r="BS2" s="45"/>
+      <c r="BT2" s="45"/>
+      <c r="BU2" s="45"/>
+      <c r="BV2" s="46"/>
+      <c r="BW2" s="44">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="45"/>
+      <c r="BY2" s="45"/>
+      <c r="BZ2" s="45"/>
+      <c r="CA2" s="45"/>
+      <c r="CB2" s="45"/>
+      <c r="CC2" s="45"/>
+      <c r="CD2" s="45"/>
+      <c r="CE2" s="45"/>
+      <c r="CF2" s="45"/>
+      <c r="CG2" s="45"/>
+      <c r="CH2" s="46"/>
+      <c r="CI2" s="44">
+        <v>8</v>
+      </c>
+      <c r="CJ2" s="45"/>
+      <c r="CK2" s="45"/>
+      <c r="CL2" s="45"/>
+      <c r="CM2" s="45"/>
+      <c r="CN2" s="45"/>
+      <c r="CO2" s="45"/>
+      <c r="CP2" s="45"/>
+      <c r="CQ2" s="45"/>
+      <c r="CR2" s="45"/>
+      <c r="CS2" s="45"/>
+      <c r="CT2" s="46"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -3812,8 +5437,116 @@
       </c>
       <c r="BI3" s="30"/>
       <c r="BJ3" s="30"/>
+      <c r="BK3" s="39">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="39">
+        <v>3.14685314685314</v>
+      </c>
+      <c r="BM3" s="39">
+        <v>3.1818181818181799</v>
+      </c>
+      <c r="BN3" s="39">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="39">
+        <v>3.2517482517482499</v>
+      </c>
+      <c r="BP3" s="39">
+        <v>3.28671328671328</v>
+      </c>
+      <c r="BQ3" s="39">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="39">
+        <v>3.35664335664335</v>
+      </c>
+      <c r="BS3" s="39">
+        <v>3.3916083916083899</v>
+      </c>
+      <c r="BT3" s="47">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="48">
+        <v>3.4615384615384599</v>
+      </c>
+      <c r="BV3" s="49">
+        <v>3.49650349650349</v>
+      </c>
+      <c r="BW3" s="39">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="39">
+        <v>3.14685314685314</v>
+      </c>
+      <c r="BY3" s="39">
+        <v>3.1818181818181799</v>
+      </c>
+      <c r="BZ3" s="39">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="39">
+        <v>3.2517482517482499</v>
+      </c>
+      <c r="CB3" s="39">
+        <v>3.28671328671328</v>
+      </c>
+      <c r="CC3" s="39">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="39">
+        <v>3.35664335664335</v>
+      </c>
+      <c r="CE3" s="39">
+        <v>3.3916083916083899</v>
+      </c>
+      <c r="CF3" s="47">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="48">
+        <v>3.4615384615384599</v>
+      </c>
+      <c r="CH3" s="49">
+        <v>3.49650349650349</v>
+      </c>
+      <c r="CI3" s="39">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="39">
+        <v>3.14685314685314</v>
+      </c>
+      <c r="CK3" s="39">
+        <v>3.1818181818181799</v>
+      </c>
+      <c r="CL3" s="39">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="39">
+        <v>3.2517482517482499</v>
+      </c>
+      <c r="CN3" s="39">
+        <v>3.28671328671328</v>
+      </c>
+      <c r="CO3" s="39">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="39">
+        <v>3.35664335664335</v>
+      </c>
+      <c r="CQ3" s="39">
+        <v>3.3916083916083899</v>
+      </c>
+      <c r="CR3" s="47">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="48">
+        <v>3.4615384615384599</v>
+      </c>
+      <c r="CT3" s="49">
+        <v>3.49650349650349</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -4000,8 +5733,116 @@
       <c r="BJ4" s="14">
         <v>3</v>
       </c>
+      <c r="BK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CT4" s="12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -4188,8 +6029,116 @@
       <c r="BJ5" s="15">
         <v>0</v>
       </c>
+      <c r="BK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -4376,8 +6325,116 @@
       <c r="BJ6" s="15">
         <v>0</v>
       </c>
+      <c r="BK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -4564,8 +6621,116 @@
       <c r="BJ7" s="15">
         <v>0</v>
       </c>
+      <c r="BK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -4752,8 +6917,116 @@
       <c r="BJ8" s="15">
         <v>0</v>
       </c>
+      <c r="BK8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -4833,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="9">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AB9" s="9">
         <v>0</v>
@@ -4851,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="9">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AH9" s="9">
         <v>0</v>
@@ -4878,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="AP9" s="9">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AQ9" s="9">
         <v>0</v>
@@ -4938,11 +7211,134 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="15">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -4975,21 +7371,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
-  <dimension ref="A2:BJ7"/>
+  <dimension ref="A2:CT7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="CC26" sqref="CC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="48" max="50" width="0" hidden="1" customWidth="1"/>
-    <col min="54" max="62" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="8.88671875" customWidth="1"/>
+    <col min="36" max="38" width="8.88671875" customWidth="1"/>
+    <col min="48" max="50" width="8.88671875" customWidth="1"/>
+    <col min="54" max="62" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>24</v>
@@ -5064,8 +7460,50 @@
       <c r="BH2" s="18"/>
       <c r="BI2" s="18"/>
       <c r="BJ2" s="19"/>
+      <c r="BK2" s="44">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="45"/>
+      <c r="BM2" s="45"/>
+      <c r="BN2" s="45"/>
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="45"/>
+      <c r="BQ2" s="45"/>
+      <c r="BR2" s="45"/>
+      <c r="BS2" s="45"/>
+      <c r="BT2" s="45"/>
+      <c r="BU2" s="45"/>
+      <c r="BV2" s="46"/>
+      <c r="BW2" s="44">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="45"/>
+      <c r="BY2" s="45"/>
+      <c r="BZ2" s="45"/>
+      <c r="CA2" s="45"/>
+      <c r="CB2" s="45"/>
+      <c r="CC2" s="45"/>
+      <c r="CD2" s="45"/>
+      <c r="CE2" s="45"/>
+      <c r="CF2" s="45"/>
+      <c r="CG2" s="45"/>
+      <c r="CH2" s="46"/>
+      <c r="CI2" s="44">
+        <v>8</v>
+      </c>
+      <c r="CJ2" s="45"/>
+      <c r="CK2" s="45"/>
+      <c r="CL2" s="45"/>
+      <c r="CM2" s="45"/>
+      <c r="CN2" s="45"/>
+      <c r="CO2" s="45"/>
+      <c r="CP2" s="45"/>
+      <c r="CQ2" s="45"/>
+      <c r="CR2" s="45"/>
+      <c r="CS2" s="45"/>
+      <c r="CT2" s="46"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -5170,8 +7608,68 @@
       </c>
       <c r="BI3" s="30"/>
       <c r="BJ3" s="30"/>
+      <c r="BK3" s="39">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="39"/>
+      <c r="BM3" s="39"/>
+      <c r="BN3" s="39">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="39"/>
+      <c r="BP3" s="39"/>
+      <c r="BQ3" s="39">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="39"/>
+      <c r="BS3" s="39"/>
+      <c r="BT3" s="47">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="48"/>
+      <c r="BV3" s="49"/>
+      <c r="BW3" s="39">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="39"/>
+      <c r="BY3" s="39"/>
+      <c r="BZ3" s="39">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="39"/>
+      <c r="CB3" s="39"/>
+      <c r="CC3" s="39">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="39"/>
+      <c r="CE3" s="39"/>
+      <c r="CF3" s="47">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="48"/>
+      <c r="CH3" s="49"/>
+      <c r="CI3" s="39">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="39"/>
+      <c r="CK3" s="39"/>
+      <c r="CL3" s="39">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="39"/>
+      <c r="CN3" s="39"/>
+      <c r="CO3" s="39">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="39"/>
+      <c r="CQ3" s="39"/>
+      <c r="CR3" s="47">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="48"/>
+      <c r="CT3" s="49"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -5358,8 +7856,116 @@
       <c r="BJ4" s="14">
         <v>3</v>
       </c>
+      <c r="BK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CT4" s="12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -5367,22 +7973,22 @@
         <v>21</v>
       </c>
       <c r="C5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="15">
         <v>0</v>
@@ -5403,67 +8009,67 @@
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ5" s="15">
         <v>0</v>
@@ -5475,31 +8081,31 @@
         <v>0</v>
       </c>
       <c r="AM5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV5" s="15">
         <v>0</v>
@@ -5511,13 +8117,13 @@
         <v>0</v>
       </c>
       <c r="AY5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ5" s="16">
         <v>0</v>
       </c>
       <c r="BA5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB5" s="15">
         <v>0</v>
@@ -5546,8 +8152,116 @@
       <c r="BJ5" s="15">
         <v>0</v>
       </c>
+      <c r="BK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -5555,22 +8269,22 @@
         <v>22</v>
       </c>
       <c r="C6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I6" s="15">
         <v>0</v>
@@ -5591,67 +8305,67 @@
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ6" s="15">
         <v>0</v>
@@ -5663,31 +8377,31 @@
         <v>0</v>
       </c>
       <c r="AM6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV6" s="15">
         <v>0</v>
@@ -5699,13 +8413,13 @@
         <v>0</v>
       </c>
       <c r="AY6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ6" s="16">
         <v>0</v>
       </c>
       <c r="BA6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB6" s="15">
         <v>0</v>
@@ -5734,8 +8448,116 @@
       <c r="BJ6" s="15">
         <v>0</v>
       </c>
+      <c r="BK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -5743,22 +8565,22 @@
         <v>23</v>
       </c>
       <c r="C7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="15">
         <v>0</v>
@@ -5779,67 +8601,67 @@
         <v>0</v>
       </c>
       <c r="O7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ7" s="15">
         <v>0</v>
@@ -5851,31 +8673,31 @@
         <v>0</v>
       </c>
       <c r="AM7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV7" s="15">
         <v>0</v>
@@ -5887,13 +8709,13 @@
         <v>0</v>
       </c>
       <c r="AY7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ7" s="16">
         <v>0</v>
       </c>
       <c r="BA7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB7" s="15">
         <v>0</v>
@@ -5920,11 +8742,134 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="15">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -5957,24 +8902,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5590460-C8AD-4B8B-AD99-70907047F648}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" customWidth="1"/>
+    <col min="20" max="22" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -5998,7 +8943,7 @@
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>24</v>
@@ -6033,8 +8978,26 @@
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
+      <c r="W2" s="44">
+        <v>6</v>
+      </c>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="44">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="44">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="46"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -6099,8 +9062,44 @@
       <c r="V3" s="15">
         <v>4</v>
       </c>
+      <c r="W3" s="12">
+        <v>1</v>
+      </c>
+      <c r="X3" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -6123,7 +9122,7 @@
         <v>250</v>
       </c>
       <c r="H4" s="9">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="I4" s="9">
         <v>6700</v>
@@ -6167,8 +9166,44 @@
       <c r="V4" s="15">
         <v>18000</v>
       </c>
+      <c r="W4" s="9">
+        <v>0</v>
+      </c>
+      <c r="X4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>9999</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>9999</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="15">
+        <v>9999</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>2</v>
@@ -6233,8 +9268,44 @@
       <c r="V5" s="15">
         <v>18000</v>
       </c>
+      <c r="W5" s="9">
+        <v>2000</v>
+      </c>
+      <c r="X5" s="9">
+        <v>2000</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>2000</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>9999</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>2000</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>9999</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>9999</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="15">
+        <v>9999</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>9999</v>
+      </c>
+      <c r="AH5" s="15">
+        <v>9999</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>3</v>
@@ -6299,9 +9370,48 @@
       <c r="V6" s="15">
         <v>18000</v>
       </c>
+      <c r="W6" s="15">
+        <v>9999</v>
+      </c>
+      <c r="X6" s="15">
+        <v>9999</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>9999</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>9999</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>2000</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>9999</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>9999</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>9999</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>9999</v>
+      </c>
+      <c r="AF6" s="15">
+        <v>9999</v>
+      </c>
+      <c r="AG6" s="15">
+        <v>9999</v>
+      </c>
+      <c r="AH6" s="15">
+        <v>9999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
@@ -6315,15 +9425,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DDF243-CEC2-4934-A255-3B8397B564B1}">
-  <dimension ref="A2:V6"/>
+  <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="W2" sqref="W2:AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>24</v>
@@ -6358,8 +9468,26 @@
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
+      <c r="W2" s="44">
+        <v>6</v>
+      </c>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="44">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="44">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="46"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -6424,8 +9552,44 @@
       <c r="V3" s="15">
         <v>4</v>
       </c>
+      <c r="W3" s="12">
+        <v>1</v>
+      </c>
+      <c r="X3" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -6492,8 +9656,44 @@
       <c r="V4" s="15">
         <v>100</v>
       </c>
+      <c r="W4" s="9">
+        <v>20</v>
+      </c>
+      <c r="X4" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>20</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>20</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>20</v>
+      </c>
+      <c r="AH4" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>2</v>
@@ -6558,14 +9758,50 @@
       <c r="V5" s="15">
         <v>100</v>
       </c>
+      <c r="W5" s="9">
+        <v>60</v>
+      </c>
+      <c r="X5" s="9">
+        <v>60</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>60</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>60</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>60</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>60</v>
+      </c>
+      <c r="AF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>3</v>
       </c>
       <c r="C6" s="15">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D6" s="15">
         <v>100</v>
@@ -6583,7 +9819,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="15">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J6" s="9">
         <v>20</v>
@@ -6607,7 +9843,7 @@
         <v>60</v>
       </c>
       <c r="Q6" s="15">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="R6" s="15">
         <v>100</v>
@@ -6624,9 +9860,48 @@
       <c r="V6" s="15">
         <v>100</v>
       </c>
+      <c r="W6" s="15">
+        <v>0</v>
+      </c>
+      <c r="X6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>60</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="15">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
@@ -6634,20 +9909,21 @@
     <mergeCell ref="S2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
-  <dimension ref="A2:V6"/>
+  <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>24</v>
@@ -6682,8 +9958,26 @@
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
+      <c r="W2" s="44">
+        <v>6</v>
+      </c>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="44">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="44">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="46"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -6748,8 +10042,44 @@
       <c r="V3" s="15">
         <v>4</v>
       </c>
+      <c r="W3" s="12">
+        <v>1</v>
+      </c>
+      <c r="X3" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -6776,8 +10106,20 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="15"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>2</v>
@@ -6802,8 +10144,20 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>3</v>
@@ -6828,9 +10182,24 @@
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>

--- a/SS_dataV7.xlsx
+++ b/SS_dataV7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC192F3-9FB6-4171-A3B8-CBA2063A9A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E41BF8F-FA4F-432B-9621-EC627537A371}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="897" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -338,6 +338,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,6 +386,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,42 +435,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -817,54 +817,54 @@
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="20">
-        <v>2</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="24">
-        <v>3</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="27">
+        <v>3</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="17">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="20">
         <v>5</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="44">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="17">
         <v>6</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="44">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="17">
         <v>7</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="44">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="17">
         <v>8</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="46"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1278,14 +1278,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1295,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:AH6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1306,54 +1306,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="20">
-        <v>2</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="24">
-        <v>3</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="27">
+        <v>3</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="17">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="20">
         <v>5</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="44">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="17">
         <v>6</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="44">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="17">
         <v>7</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="44">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="17">
         <v>8</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="46"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -1795,54 +1795,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="20">
-        <v>2</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="24">
-        <v>3</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="27">
+        <v>3</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="17">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="20">
         <v>5</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="44">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="17">
         <v>6</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="44">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="17">
         <v>7</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="44">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="17">
         <v>8</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="46"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -2092,54 +2092,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="20">
-        <v>2</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="24">
-        <v>3</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="27">
+        <v>3</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="17">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="20">
         <v>5</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="44">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="17">
         <v>6</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="44">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="17">
         <v>7</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="44">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="17">
         <v>8</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="46"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -3040,330 +3040,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="20">
-        <v>2</v>
-      </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="24">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="27">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="23">
+        <v>2</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="30">
         <v>4</v>
       </c>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="17">
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="20">
         <v>5</v>
       </c>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="19"/>
-      <c r="BK2" s="44">
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="17">
         <v>6</v>
       </c>
-      <c r="BL2" s="45"/>
-      <c r="BM2" s="45"/>
-      <c r="BN2" s="45"/>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="45"/>
-      <c r="BR2" s="45"/>
-      <c r="BS2" s="45"/>
-      <c r="BT2" s="45"/>
-      <c r="BU2" s="45"/>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="44">
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="17">
         <v>7</v>
       </c>
-      <c r="BX2" s="45"/>
-      <c r="BY2" s="45"/>
-      <c r="BZ2" s="45"/>
-      <c r="CA2" s="45"/>
-      <c r="CB2" s="45"/>
-      <c r="CC2" s="45"/>
-      <c r="CD2" s="45"/>
-      <c r="CE2" s="45"/>
-      <c r="CF2" s="45"/>
-      <c r="CG2" s="45"/>
-      <c r="CH2" s="46"/>
-      <c r="CI2" s="44">
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="18"/>
+      <c r="BZ2" s="18"/>
+      <c r="CA2" s="18"/>
+      <c r="CB2" s="18"/>
+      <c r="CC2" s="18"/>
+      <c r="CD2" s="18"/>
+      <c r="CE2" s="18"/>
+      <c r="CF2" s="18"/>
+      <c r="CG2" s="18"/>
+      <c r="CH2" s="19"/>
+      <c r="CI2" s="17">
         <v>8</v>
       </c>
-      <c r="CJ2" s="45"/>
-      <c r="CK2" s="45"/>
-      <c r="CL2" s="45"/>
-      <c r="CM2" s="45"/>
-      <c r="CN2" s="45"/>
-      <c r="CO2" s="45"/>
-      <c r="CP2" s="45"/>
-      <c r="CQ2" s="45"/>
-      <c r="CR2" s="45"/>
-      <c r="CS2" s="45"/>
-      <c r="CT2" s="46"/>
+      <c r="CJ2" s="18"/>
+      <c r="CK2" s="18"/>
+      <c r="CL2" s="18"/>
+      <c r="CM2" s="18"/>
+      <c r="CN2" s="18"/>
+      <c r="CO2" s="18"/>
+      <c r="CP2" s="18"/>
+      <c r="CQ2" s="18"/>
+      <c r="CR2" s="18"/>
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="19"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
+      <c r="C3" s="37">
+        <v>1</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="39">
         <v>4</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="38">
-        <v>3</v>
-      </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39">
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="33">
+        <v>1</v>
+      </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="38">
+        <v>2</v>
+      </c>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="37">
+        <v>3</v>
+      </c>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="33">
         <v>4</v>
       </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="31">
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="33">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="49">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="43">
         <v>4</v>
       </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="34">
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="46">
         <v>4</v>
       </c>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30">
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42">
         <v>4</v>
       </c>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="39">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="39">
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="39">
+      <c r="BM3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="39">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="39">
+      <c r="BN3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="39">
+      <c r="BP3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="39">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="39">
+      <c r="BQ3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="39">
+      <c r="BS3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="47">
+      <c r="BT3" s="34">
         <v>4</v>
       </c>
-      <c r="BU3" s="48">
+      <c r="BU3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="49">
+      <c r="BV3" s="36">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="39">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="39">
+      <c r="BW3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="39">
+      <c r="BY3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="39">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="39">
+      <c r="BZ3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="39">
+      <c r="CB3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="39">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="39">
+      <c r="CC3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="39">
+      <c r="CE3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="47">
+      <c r="CF3" s="34">
         <v>4</v>
       </c>
-      <c r="CG3" s="48">
+      <c r="CG3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="49">
+      <c r="CH3" s="36">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="39">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="39">
+      <c r="CI3" s="33">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="39">
+      <c r="CK3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="39">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="39">
+      <c r="CL3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="39">
+      <c r="CN3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="39">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="39">
+      <c r="CO3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="39">
+      <c r="CQ3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="47">
+      <c r="CR3" s="34">
         <v>4</v>
       </c>
-      <c r="CS3" s="48">
+      <c r="CS3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="49">
+      <c r="CT3" s="36">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5145,6 +5145,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5160,31 +5185,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5219,330 +5219,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="20">
-        <v>2</v>
-      </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="24">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="27">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="23">
+        <v>2</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="30">
         <v>4</v>
       </c>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="17">
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="20">
         <v>5</v>
       </c>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="19"/>
-      <c r="BK2" s="44">
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="17">
         <v>6</v>
       </c>
-      <c r="BL2" s="45"/>
-      <c r="BM2" s="45"/>
-      <c r="BN2" s="45"/>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="45"/>
-      <c r="BR2" s="45"/>
-      <c r="BS2" s="45"/>
-      <c r="BT2" s="45"/>
-      <c r="BU2" s="45"/>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="44">
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="17">
         <v>7</v>
       </c>
-      <c r="BX2" s="45"/>
-      <c r="BY2" s="45"/>
-      <c r="BZ2" s="45"/>
-      <c r="CA2" s="45"/>
-      <c r="CB2" s="45"/>
-      <c r="CC2" s="45"/>
-      <c r="CD2" s="45"/>
-      <c r="CE2" s="45"/>
-      <c r="CF2" s="45"/>
-      <c r="CG2" s="45"/>
-      <c r="CH2" s="46"/>
-      <c r="CI2" s="44">
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="18"/>
+      <c r="BZ2" s="18"/>
+      <c r="CA2" s="18"/>
+      <c r="CB2" s="18"/>
+      <c r="CC2" s="18"/>
+      <c r="CD2" s="18"/>
+      <c r="CE2" s="18"/>
+      <c r="CF2" s="18"/>
+      <c r="CG2" s="18"/>
+      <c r="CH2" s="19"/>
+      <c r="CI2" s="17">
         <v>8</v>
       </c>
-      <c r="CJ2" s="45"/>
-      <c r="CK2" s="45"/>
-      <c r="CL2" s="45"/>
-      <c r="CM2" s="45"/>
-      <c r="CN2" s="45"/>
-      <c r="CO2" s="45"/>
-      <c r="CP2" s="45"/>
-      <c r="CQ2" s="45"/>
-      <c r="CR2" s="45"/>
-      <c r="CS2" s="45"/>
-      <c r="CT2" s="46"/>
+      <c r="CJ2" s="18"/>
+      <c r="CK2" s="18"/>
+      <c r="CL2" s="18"/>
+      <c r="CM2" s="18"/>
+      <c r="CN2" s="18"/>
+      <c r="CO2" s="18"/>
+      <c r="CP2" s="18"/>
+      <c r="CQ2" s="18"/>
+      <c r="CR2" s="18"/>
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="19"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
+      <c r="C3" s="37">
+        <v>1</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="39">
         <v>4</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="38">
-        <v>3</v>
-      </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39">
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="33">
+        <v>1</v>
+      </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="38">
+        <v>2</v>
+      </c>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="37">
+        <v>3</v>
+      </c>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="33">
         <v>4</v>
       </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="31">
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="33">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="49">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="43">
         <v>4</v>
       </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="34">
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="46">
         <v>4</v>
       </c>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30">
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42">
         <v>4</v>
       </c>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="39">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="39">
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="39">
+      <c r="BM3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="39">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="39">
+      <c r="BN3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="39">
+      <c r="BP3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="39">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="39">
+      <c r="BQ3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="39">
+      <c r="BS3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="47">
+      <c r="BT3" s="34">
         <v>4</v>
       </c>
-      <c r="BU3" s="48">
+      <c r="BU3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="49">
+      <c r="BV3" s="36">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="39">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="39">
+      <c r="BW3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="39">
+      <c r="BY3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="39">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="39">
+      <c r="BZ3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="39">
+      <c r="CB3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="39">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="39">
+      <c r="CC3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="39">
+      <c r="CE3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="47">
+      <c r="CF3" s="34">
         <v>4</v>
       </c>
-      <c r="CG3" s="48">
+      <c r="CG3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="49">
+      <c r="CH3" s="36">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="39">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="39">
+      <c r="CI3" s="33">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="39">
+      <c r="CK3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="39">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="39">
+      <c r="CL3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="39">
+      <c r="CN3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="39">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="39">
+      <c r="CO3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="39">
+      <c r="CQ3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="47">
+      <c r="CR3" s="34">
         <v>4</v>
       </c>
-      <c r="CS3" s="48">
+      <c r="CS3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="49">
+      <c r="CT3" s="36">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7324,21 +7324,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7355,15 +7349,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7390,284 +7390,284 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="20">
-        <v>2</v>
-      </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="24">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="27">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="23">
+        <v>2</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="30">
         <v>4</v>
       </c>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="17">
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="20">
         <v>5</v>
       </c>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="19"/>
-      <c r="BK2" s="44">
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="17">
         <v>6</v>
       </c>
-      <c r="BL2" s="45"/>
-      <c r="BM2" s="45"/>
-      <c r="BN2" s="45"/>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="45"/>
-      <c r="BR2" s="45"/>
-      <c r="BS2" s="45"/>
-      <c r="BT2" s="45"/>
-      <c r="BU2" s="45"/>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="44">
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="17">
         <v>7</v>
       </c>
-      <c r="BX2" s="45"/>
-      <c r="BY2" s="45"/>
-      <c r="BZ2" s="45"/>
-      <c r="CA2" s="45"/>
-      <c r="CB2" s="45"/>
-      <c r="CC2" s="45"/>
-      <c r="CD2" s="45"/>
-      <c r="CE2" s="45"/>
-      <c r="CF2" s="45"/>
-      <c r="CG2" s="45"/>
-      <c r="CH2" s="46"/>
-      <c r="CI2" s="44">
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="18"/>
+      <c r="BZ2" s="18"/>
+      <c r="CA2" s="18"/>
+      <c r="CB2" s="18"/>
+      <c r="CC2" s="18"/>
+      <c r="CD2" s="18"/>
+      <c r="CE2" s="18"/>
+      <c r="CF2" s="18"/>
+      <c r="CG2" s="18"/>
+      <c r="CH2" s="19"/>
+      <c r="CI2" s="17">
         <v>8</v>
       </c>
-      <c r="CJ2" s="45"/>
-      <c r="CK2" s="45"/>
-      <c r="CL2" s="45"/>
-      <c r="CM2" s="45"/>
-      <c r="CN2" s="45"/>
-      <c r="CO2" s="45"/>
-      <c r="CP2" s="45"/>
-      <c r="CQ2" s="45"/>
-      <c r="CR2" s="45"/>
-      <c r="CS2" s="45"/>
-      <c r="CT2" s="46"/>
+      <c r="CJ2" s="18"/>
+      <c r="CK2" s="18"/>
+      <c r="CL2" s="18"/>
+      <c r="CM2" s="18"/>
+      <c r="CN2" s="18"/>
+      <c r="CO2" s="18"/>
+      <c r="CP2" s="18"/>
+      <c r="CQ2" s="18"/>
+      <c r="CR2" s="18"/>
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="19"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
+      <c r="C3" s="37">
+        <v>1</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="39">
         <v>4</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="38">
-        <v>3</v>
-      </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39">
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="33">
+        <v>1</v>
+      </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="38">
+        <v>2</v>
+      </c>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="37">
+        <v>3</v>
+      </c>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="33">
         <v>4</v>
       </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="31">
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="33">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="49">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="43">
         <v>4</v>
       </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="34">
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="46">
         <v>4</v>
       </c>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30">
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42">
         <v>4</v>
       </c>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="39">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="39"/>
-      <c r="BM3" s="39"/>
-      <c r="BN3" s="39">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="39"/>
-      <c r="BP3" s="39"/>
-      <c r="BQ3" s="39">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="39"/>
-      <c r="BS3" s="39"/>
-      <c r="BT3" s="47">
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="33"/>
+      <c r="BM3" s="33"/>
+      <c r="BN3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="33"/>
+      <c r="BP3" s="33"/>
+      <c r="BQ3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="33"/>
+      <c r="BS3" s="33"/>
+      <c r="BT3" s="34">
         <v>4</v>
       </c>
-      <c r="BU3" s="48"/>
-      <c r="BV3" s="49"/>
-      <c r="BW3" s="39">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="39"/>
-      <c r="BY3" s="39"/>
-      <c r="BZ3" s="39">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="39"/>
-      <c r="CB3" s="39"/>
-      <c r="CC3" s="39">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="39"/>
-      <c r="CE3" s="39"/>
-      <c r="CF3" s="47">
+      <c r="BU3" s="35"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="33"/>
+      <c r="BY3" s="33"/>
+      <c r="BZ3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="33"/>
+      <c r="CB3" s="33"/>
+      <c r="CC3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="33"/>
+      <c r="CE3" s="33"/>
+      <c r="CF3" s="34">
         <v>4</v>
       </c>
-      <c r="CG3" s="48"/>
-      <c r="CH3" s="49"/>
-      <c r="CI3" s="39">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="39"/>
-      <c r="CK3" s="39"/>
-      <c r="CL3" s="39">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="39"/>
-      <c r="CN3" s="39"/>
-      <c r="CO3" s="39">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="39"/>
-      <c r="CQ3" s="39"/>
-      <c r="CR3" s="47">
+      <c r="CG3" s="35"/>
+      <c r="CH3" s="36"/>
+      <c r="CI3" s="33">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="33"/>
+      <c r="CK3" s="33"/>
+      <c r="CL3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="33"/>
+      <c r="CN3" s="33"/>
+      <c r="CO3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="33"/>
+      <c r="CQ3" s="33"/>
+      <c r="CR3" s="34">
         <v>4</v>
       </c>
-      <c r="CS3" s="48"/>
-      <c r="CT3" s="49"/>
+      <c r="CS3" s="35"/>
+      <c r="CT3" s="36"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -8855,21 +8855,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -8886,15 +8880,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8904,8 +8904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5590460-C8AD-4B8B-AD99-70907047F648}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8948,54 +8948,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="20">
-        <v>2</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="24">
-        <v>3</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="27">
+        <v>3</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="17">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="20">
         <v>5</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="44">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="17">
         <v>6</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="44">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="17">
         <v>7</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="44">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="17">
         <v>8</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="46"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -9438,54 +9438,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="20">
-        <v>2</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="24">
-        <v>3</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="27">
+        <v>3</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="17">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="20">
         <v>5</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="44">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="17">
         <v>6</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="44">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="17">
         <v>7</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="44">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="17">
         <v>8</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="46"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -9917,7 +9917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -9928,54 +9928,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="20">
-        <v>2</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="24">
-        <v>3</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="27">
+        <v>3</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="17">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="20">
         <v>5</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="44">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="17">
         <v>6</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="44">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="17">
         <v>7</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="44">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="17">
         <v>8</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="46"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>

--- a/SS_dataV7.xlsx
+++ b/SS_dataV7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E41BF8F-FA4F-432B-9621-EC627537A371}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1F0CC5-9C18-4EE6-8E37-B16C6C5CB8B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="897" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25740" yWindow="4536" windowWidth="30960" windowHeight="12204" tabRatio="897" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -338,27 +338,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,31 +365,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,6 +408,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -817,54 +817,54 @@
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="27">
-        <v>3</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="32">
+        <v>2</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="20">
+        <v>3</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23">
         <v>4</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="20">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="29">
         <v>5</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="17">
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="26">
         <v>6</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="17">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="26">
         <v>7</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="17">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="26">
         <v>8</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="28"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1278,14 +1278,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="G2:J2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="G2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1306,54 +1306,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="27">
-        <v>3</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="32">
+        <v>2</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="20">
+        <v>3</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23">
         <v>4</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="20">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="29">
         <v>5</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="17">
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="26">
         <v>6</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="17">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="26">
         <v>7</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="17">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="26">
         <v>8</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="28"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -1795,54 +1795,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="27">
-        <v>3</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="32">
+        <v>2</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="20">
+        <v>3</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23">
         <v>4</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="20">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="29">
         <v>5</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="17">
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="26">
         <v>6</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="17">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="26">
         <v>7</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="17">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="26">
         <v>8</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="28"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -2092,54 +2092,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="27">
-        <v>3</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="32">
+        <v>2</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="20">
+        <v>3</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23">
         <v>4</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="20">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="29">
         <v>5</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="17">
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="26">
         <v>6</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="17">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="26">
         <v>7</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="17">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="26">
         <v>8</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="28"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -3022,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BK2" sqref="BK2:CT9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3040,330 +3040,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="23">
-        <v>2</v>
-      </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="27">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="30">
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="32">
+        <v>2</v>
+      </c>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="20">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="23">
         <v>4</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="20">
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="29">
         <v>5</v>
       </c>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="22"/>
-      <c r="BK2" s="17">
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="26">
         <v>6</v>
       </c>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="17">
+      <c r="BL2" s="27"/>
+      <c r="BM2" s="27"/>
+      <c r="BN2" s="27"/>
+      <c r="BO2" s="27"/>
+      <c r="BP2" s="27"/>
+      <c r="BQ2" s="27"/>
+      <c r="BR2" s="27"/>
+      <c r="BS2" s="27"/>
+      <c r="BT2" s="27"/>
+      <c r="BU2" s="27"/>
+      <c r="BV2" s="28"/>
+      <c r="BW2" s="26">
         <v>7</v>
       </c>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="18"/>
-      <c r="CB2" s="18"/>
-      <c r="CC2" s="18"/>
-      <c r="CD2" s="18"/>
-      <c r="CE2" s="18"/>
-      <c r="CF2" s="18"/>
-      <c r="CG2" s="18"/>
-      <c r="CH2" s="19"/>
-      <c r="CI2" s="17">
+      <c r="BX2" s="27"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="27"/>
+      <c r="CA2" s="27"/>
+      <c r="CB2" s="27"/>
+      <c r="CC2" s="27"/>
+      <c r="CD2" s="27"/>
+      <c r="CE2" s="27"/>
+      <c r="CF2" s="27"/>
+      <c r="CG2" s="27"/>
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="26">
         <v>8</v>
       </c>
-      <c r="CJ2" s="18"/>
-      <c r="CK2" s="18"/>
-      <c r="CL2" s="18"/>
-      <c r="CM2" s="18"/>
-      <c r="CN2" s="18"/>
-      <c r="CO2" s="18"/>
-      <c r="CP2" s="18"/>
-      <c r="CQ2" s="18"/>
-      <c r="CR2" s="18"/>
-      <c r="CS2" s="18"/>
-      <c r="CT2" s="19"/>
+      <c r="CJ2" s="27"/>
+      <c r="CK2" s="27"/>
+      <c r="CL2" s="27"/>
+      <c r="CM2" s="27"/>
+      <c r="CN2" s="27"/>
+      <c r="CO2" s="27"/>
+      <c r="CP2" s="27"/>
+      <c r="CQ2" s="27"/>
+      <c r="CR2" s="27"/>
+      <c r="CS2" s="27"/>
+      <c r="CT2" s="28"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="39">
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="43">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44">
+        <v>3</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="44">
         <v>4</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="33">
-        <v>1</v>
-      </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="38">
-        <v>2</v>
-      </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="37">
-        <v>3</v>
-      </c>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="33">
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="42">
+        <v>1</v>
+      </c>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43">
+        <v>2</v>
+      </c>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="41">
+        <v>3</v>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="42">
         <v>4</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="33">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="49">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="43">
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="42">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="40">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="34">
         <v>4</v>
       </c>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="46">
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="41">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="37">
         <v>4</v>
       </c>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42">
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="33">
         <v>4</v>
       </c>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="33">
+      <c r="BI3" s="33"/>
+      <c r="BJ3" s="33"/>
+      <c r="BK3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="33">
+      <c r="BM3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="33">
+      <c r="BN3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="33">
+      <c r="BP3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="33">
+      <c r="BQ3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="33">
+      <c r="BS3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="34">
+      <c r="BT3" s="47">
         <v>4</v>
       </c>
-      <c r="BU3" s="35">
+      <c r="BU3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="36">
+      <c r="BV3" s="49">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="33">
+      <c r="BW3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="33">
+      <c r="BY3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="33">
+      <c r="BZ3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="33">
+      <c r="CB3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="33">
+      <c r="CC3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="33">
+      <c r="CE3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="34">
+      <c r="CF3" s="47">
         <v>4</v>
       </c>
-      <c r="CG3" s="35">
+      <c r="CG3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="36">
+      <c r="CH3" s="49">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="33">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="33">
+      <c r="CI3" s="42">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="33">
+      <c r="CK3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="33">
+      <c r="CL3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="33">
+      <c r="CN3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="33">
+      <c r="CO3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="33">
+      <c r="CQ3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="34">
+      <c r="CR3" s="47">
         <v>4</v>
       </c>
-      <c r="CS3" s="35">
+      <c r="CS3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="36">
+      <c r="CT3" s="49">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5145,6 +5145,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -5160,31 +5185,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5219,330 +5219,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="23">
-        <v>2</v>
-      </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="27">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="30">
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="32">
+        <v>2</v>
+      </c>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="20">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="23">
         <v>4</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="20">
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="29">
         <v>5</v>
       </c>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="22"/>
-      <c r="BK2" s="17">
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="26">
         <v>6</v>
       </c>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="17">
+      <c r="BL2" s="27"/>
+      <c r="BM2" s="27"/>
+      <c r="BN2" s="27"/>
+      <c r="BO2" s="27"/>
+      <c r="BP2" s="27"/>
+      <c r="BQ2" s="27"/>
+      <c r="BR2" s="27"/>
+      <c r="BS2" s="27"/>
+      <c r="BT2" s="27"/>
+      <c r="BU2" s="27"/>
+      <c r="BV2" s="28"/>
+      <c r="BW2" s="26">
         <v>7</v>
       </c>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="18"/>
-      <c r="CB2" s="18"/>
-      <c r="CC2" s="18"/>
-      <c r="CD2" s="18"/>
-      <c r="CE2" s="18"/>
-      <c r="CF2" s="18"/>
-      <c r="CG2" s="18"/>
-      <c r="CH2" s="19"/>
-      <c r="CI2" s="17">
+      <c r="BX2" s="27"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="27"/>
+      <c r="CA2" s="27"/>
+      <c r="CB2" s="27"/>
+      <c r="CC2" s="27"/>
+      <c r="CD2" s="27"/>
+      <c r="CE2" s="27"/>
+      <c r="CF2" s="27"/>
+      <c r="CG2" s="27"/>
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="26">
         <v>8</v>
       </c>
-      <c r="CJ2" s="18"/>
-      <c r="CK2" s="18"/>
-      <c r="CL2" s="18"/>
-      <c r="CM2" s="18"/>
-      <c r="CN2" s="18"/>
-      <c r="CO2" s="18"/>
-      <c r="CP2" s="18"/>
-      <c r="CQ2" s="18"/>
-      <c r="CR2" s="18"/>
-      <c r="CS2" s="18"/>
-      <c r="CT2" s="19"/>
+      <c r="CJ2" s="27"/>
+      <c r="CK2" s="27"/>
+      <c r="CL2" s="27"/>
+      <c r="CM2" s="27"/>
+      <c r="CN2" s="27"/>
+      <c r="CO2" s="27"/>
+      <c r="CP2" s="27"/>
+      <c r="CQ2" s="27"/>
+      <c r="CR2" s="27"/>
+      <c r="CS2" s="27"/>
+      <c r="CT2" s="28"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="39">
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="43">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44">
+        <v>3</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="44">
         <v>4</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="33">
-        <v>1</v>
-      </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="38">
-        <v>2</v>
-      </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="37">
-        <v>3</v>
-      </c>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="33">
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="42">
+        <v>1</v>
+      </c>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43">
+        <v>2</v>
+      </c>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="41">
+        <v>3</v>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="42">
         <v>4</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="33">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="49">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="43">
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="42">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="40">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="34">
         <v>4</v>
       </c>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="46">
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="41">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="37">
         <v>4</v>
       </c>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42">
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="33">
         <v>4</v>
       </c>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="33">
+      <c r="BI3" s="33"/>
+      <c r="BJ3" s="33"/>
+      <c r="BK3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="33">
+      <c r="BM3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="33">
+      <c r="BN3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="33">
+      <c r="BP3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="33">
+      <c r="BQ3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="33">
+      <c r="BS3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="34">
+      <c r="BT3" s="47">
         <v>4</v>
       </c>
-      <c r="BU3" s="35">
+      <c r="BU3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="36">
+      <c r="BV3" s="49">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="33">
+      <c r="BW3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="33">
+      <c r="BY3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="33">
+      <c r="BZ3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="33">
+      <c r="CB3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="33">
+      <c r="CC3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="33">
+      <c r="CE3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="34">
+      <c r="CF3" s="47">
         <v>4</v>
       </c>
-      <c r="CG3" s="35">
+      <c r="CG3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="36">
+      <c r="CH3" s="49">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="33">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="33">
+      <c r="CI3" s="42">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="33">
+      <c r="CK3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="33">
+      <c r="CL3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="33">
+      <c r="CN3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="33">
+      <c r="CO3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="33">
+      <c r="CQ3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="34">
+      <c r="CR3" s="47">
         <v>4</v>
       </c>
-      <c r="CS3" s="35">
+      <c r="CS3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="36">
+      <c r="CT3" s="49">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7324,15 +7324,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7349,21 +7355,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7390,284 +7390,284 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="23">
-        <v>2</v>
-      </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="27">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="30">
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="32">
+        <v>2</v>
+      </c>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="20">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="23">
         <v>4</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="20">
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="29">
         <v>5</v>
       </c>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="22"/>
-      <c r="BK2" s="17">
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="26">
         <v>6</v>
       </c>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="17">
+      <c r="BL2" s="27"/>
+      <c r="BM2" s="27"/>
+      <c r="BN2" s="27"/>
+      <c r="BO2" s="27"/>
+      <c r="BP2" s="27"/>
+      <c r="BQ2" s="27"/>
+      <c r="BR2" s="27"/>
+      <c r="BS2" s="27"/>
+      <c r="BT2" s="27"/>
+      <c r="BU2" s="27"/>
+      <c r="BV2" s="28"/>
+      <c r="BW2" s="26">
         <v>7</v>
       </c>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="18"/>
-      <c r="CB2" s="18"/>
-      <c r="CC2" s="18"/>
-      <c r="CD2" s="18"/>
-      <c r="CE2" s="18"/>
-      <c r="CF2" s="18"/>
-      <c r="CG2" s="18"/>
-      <c r="CH2" s="19"/>
-      <c r="CI2" s="17">
+      <c r="BX2" s="27"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="27"/>
+      <c r="CA2" s="27"/>
+      <c r="CB2" s="27"/>
+      <c r="CC2" s="27"/>
+      <c r="CD2" s="27"/>
+      <c r="CE2" s="27"/>
+      <c r="CF2" s="27"/>
+      <c r="CG2" s="27"/>
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="26">
         <v>8</v>
       </c>
-      <c r="CJ2" s="18"/>
-      <c r="CK2" s="18"/>
-      <c r="CL2" s="18"/>
-      <c r="CM2" s="18"/>
-      <c r="CN2" s="18"/>
-      <c r="CO2" s="18"/>
-      <c r="CP2" s="18"/>
-      <c r="CQ2" s="18"/>
-      <c r="CR2" s="18"/>
-      <c r="CS2" s="18"/>
-      <c r="CT2" s="19"/>
+      <c r="CJ2" s="27"/>
+      <c r="CK2" s="27"/>
+      <c r="CL2" s="27"/>
+      <c r="CM2" s="27"/>
+      <c r="CN2" s="27"/>
+      <c r="CO2" s="27"/>
+      <c r="CP2" s="27"/>
+      <c r="CQ2" s="27"/>
+      <c r="CR2" s="27"/>
+      <c r="CS2" s="27"/>
+      <c r="CT2" s="28"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="39">
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="43">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44">
+        <v>3</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="44">
         <v>4</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="33">
-        <v>1</v>
-      </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="38">
-        <v>2</v>
-      </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="37">
-        <v>3</v>
-      </c>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="33">
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="42">
+        <v>1</v>
+      </c>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43">
+        <v>2</v>
+      </c>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="41">
+        <v>3</v>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="42">
         <v>4</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="33">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="49">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="43">
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="42">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="40">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="34">
         <v>4</v>
       </c>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="46">
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="41">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="37">
         <v>4</v>
       </c>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42">
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="33">
         <v>4</v>
       </c>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="33"/>
-      <c r="BM3" s="33"/>
-      <c r="BN3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="33"/>
-      <c r="BP3" s="33"/>
-      <c r="BQ3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="33"/>
-      <c r="BS3" s="33"/>
-      <c r="BT3" s="34">
+      <c r="BI3" s="33"/>
+      <c r="BJ3" s="33"/>
+      <c r="BK3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="47">
         <v>4</v>
       </c>
-      <c r="BU3" s="35"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="33"/>
-      <c r="BY3" s="33"/>
-      <c r="BZ3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="33"/>
-      <c r="CB3" s="33"/>
-      <c r="CC3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="33"/>
-      <c r="CE3" s="33"/>
-      <c r="CF3" s="34">
+      <c r="BU3" s="48"/>
+      <c r="BV3" s="49"/>
+      <c r="BW3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="42"/>
+      <c r="CC3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="47">
         <v>4</v>
       </c>
-      <c r="CG3" s="35"/>
-      <c r="CH3" s="36"/>
-      <c r="CI3" s="33">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="33"/>
-      <c r="CK3" s="33"/>
-      <c r="CL3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="33"/>
-      <c r="CN3" s="33"/>
-      <c r="CO3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="33"/>
-      <c r="CQ3" s="33"/>
-      <c r="CR3" s="34">
+      <c r="CG3" s="48"/>
+      <c r="CH3" s="49"/>
+      <c r="CI3" s="42">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="42"/>
+      <c r="CK3" s="42"/>
+      <c r="CL3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="42"/>
+      <c r="CN3" s="42"/>
+      <c r="CO3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="42"/>
+      <c r="CQ3" s="42"/>
+      <c r="CR3" s="47">
         <v>4</v>
       </c>
-      <c r="CS3" s="35"/>
-      <c r="CT3" s="36"/>
+      <c r="CS3" s="48"/>
+      <c r="CT3" s="49"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -8855,15 +8855,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -8880,21 +8886,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8904,8 +8904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5590460-C8AD-4B8B-AD99-70907047F648}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8948,54 +8948,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="27">
-        <v>3</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="32">
+        <v>2</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="20">
+        <v>3</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23">
         <v>4</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="20">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="29">
         <v>5</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="17">
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="26">
         <v>6</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="17">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="26">
         <v>7</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="17">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="26">
         <v>8</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="28"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -9329,7 +9329,7 @@
         <v>18000</v>
       </c>
       <c r="I6" s="15">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="J6" s="9">
         <v>200</v>
@@ -9438,54 +9438,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="27">
-        <v>3</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="32">
+        <v>2</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="20">
+        <v>3</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23">
         <v>4</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="20">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="29">
         <v>5</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="17">
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="26">
         <v>6</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="17">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="26">
         <v>7</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="17">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="26">
         <v>8</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="28"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -9928,54 +9928,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="27">
-        <v>3</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="32">
+        <v>2</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="20">
+        <v>3</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23">
         <v>4</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="20">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="29">
         <v>5</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="17">
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="26">
         <v>6</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="17">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="26">
         <v>7</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="17">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="26">
         <v>8</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="28"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>

--- a/SS_dataV7.xlsx
+++ b/SS_dataV7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1F0CC5-9C18-4EE6-8E37-B16C6C5CB8B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277BBAFF-2629-454D-A73F-2BE01D11CC1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25740" yWindow="4536" windowWidth="30960" windowHeight="12204" tabRatio="897" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41172" yWindow="-276" windowWidth="23256" windowHeight="12576" tabRatio="897" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -338,6 +338,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,25 +386,31 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,33 +435,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -817,54 +817,54 @@
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="32">
-        <v>2</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="20">
-        <v>3</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="27">
+        <v>3</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="29">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="20">
         <v>5</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="26">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="17">
         <v>6</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="26">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="17">
         <v>7</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="26">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="17">
         <v>8</v>
       </c>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="28"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1306,54 +1306,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="32">
-        <v>2</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="20">
-        <v>3</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="27">
+        <v>3</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="29">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="20">
         <v>5</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="26">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="17">
         <v>6</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="26">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="17">
         <v>7</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="26">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="17">
         <v>8</v>
       </c>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="28"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -1795,54 +1795,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="32">
-        <v>2</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="20">
-        <v>3</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="27">
+        <v>3</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="29">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="20">
         <v>5</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="26">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="17">
         <v>6</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="26">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="17">
         <v>7</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="26">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="17">
         <v>8</v>
       </c>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="28"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -2092,54 +2092,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="32">
-        <v>2</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="20">
-        <v>3</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="27">
+        <v>3</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="29">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="20">
         <v>5</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="26">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="17">
         <v>6</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="26">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="17">
         <v>7</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="26">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="17">
         <v>8</v>
       </c>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="28"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -2725,7 +2725,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2801,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9531EC-CA23-40AE-B9E3-0DD65FEE9D1D}">
   <dimension ref="A3:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2857,7 +2857,7 @@
   <dimension ref="A3:AK32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3040,330 +3040,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="32">
-        <v>2</v>
-      </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="20">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="23">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="23">
+        <v>2</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="30">
         <v>4</v>
       </c>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="29">
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="20">
         <v>5</v>
       </c>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="30"/>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="31"/>
-      <c r="BK2" s="26">
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="17">
         <v>6</v>
       </c>
-      <c r="BL2" s="27"/>
-      <c r="BM2" s="27"/>
-      <c r="BN2" s="27"/>
-      <c r="BO2" s="27"/>
-      <c r="BP2" s="27"/>
-      <c r="BQ2" s="27"/>
-      <c r="BR2" s="27"/>
-      <c r="BS2" s="27"/>
-      <c r="BT2" s="27"/>
-      <c r="BU2" s="27"/>
-      <c r="BV2" s="28"/>
-      <c r="BW2" s="26">
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="17">
         <v>7</v>
       </c>
-      <c r="BX2" s="27"/>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="27"/>
-      <c r="CA2" s="27"/>
-      <c r="CB2" s="27"/>
-      <c r="CC2" s="27"/>
-      <c r="CD2" s="27"/>
-      <c r="CE2" s="27"/>
-      <c r="CF2" s="27"/>
-      <c r="CG2" s="27"/>
-      <c r="CH2" s="28"/>
-      <c r="CI2" s="26">
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="18"/>
+      <c r="BZ2" s="18"/>
+      <c r="CA2" s="18"/>
+      <c r="CB2" s="18"/>
+      <c r="CC2" s="18"/>
+      <c r="CD2" s="18"/>
+      <c r="CE2" s="18"/>
+      <c r="CF2" s="18"/>
+      <c r="CG2" s="18"/>
+      <c r="CH2" s="19"/>
+      <c r="CI2" s="17">
         <v>8</v>
       </c>
-      <c r="CJ2" s="27"/>
-      <c r="CK2" s="27"/>
-      <c r="CL2" s="27"/>
-      <c r="CM2" s="27"/>
-      <c r="CN2" s="27"/>
-      <c r="CO2" s="27"/>
-      <c r="CP2" s="27"/>
-      <c r="CQ2" s="27"/>
-      <c r="CR2" s="27"/>
-      <c r="CS2" s="27"/>
-      <c r="CT2" s="28"/>
+      <c r="CJ2" s="18"/>
+      <c r="CK2" s="18"/>
+      <c r="CL2" s="18"/>
+      <c r="CM2" s="18"/>
+      <c r="CN2" s="18"/>
+      <c r="CO2" s="18"/>
+      <c r="CP2" s="18"/>
+      <c r="CQ2" s="18"/>
+      <c r="CR2" s="18"/>
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="19"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="43">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44">
-        <v>3</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="44">
+      <c r="C3" s="37">
+        <v>1</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="39">
         <v>4</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="42">
-        <v>1</v>
-      </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43">
-        <v>2</v>
-      </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="41">
-        <v>3</v>
-      </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="42">
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="33">
+        <v>1</v>
+      </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="38">
+        <v>2</v>
+      </c>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="37">
+        <v>3</v>
+      </c>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="33">
         <v>4</v>
       </c>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="42">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="40">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="34">
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="33">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="49">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="43">
         <v>4</v>
       </c>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="41">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="37">
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="46">
         <v>4</v>
       </c>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="33"/>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="33"/>
-      <c r="BG3" s="33"/>
-      <c r="BH3" s="33">
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42">
         <v>4</v>
       </c>
-      <c r="BI3" s="33"/>
-      <c r="BJ3" s="33"/>
-      <c r="BK3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="42">
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="42">
+      <c r="BM3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="42">
+      <c r="BN3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="42">
+      <c r="BP3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="42">
+      <c r="BQ3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="42">
+      <c r="BS3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="47">
+      <c r="BT3" s="34">
         <v>4</v>
       </c>
-      <c r="BU3" s="48">
+      <c r="BU3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="49">
+      <c r="BV3" s="36">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="42">
+      <c r="BW3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="42">
+      <c r="BY3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="42">
+      <c r="BZ3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="42">
+      <c r="CB3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="42">
+      <c r="CC3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="42">
+      <c r="CE3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="47">
+      <c r="CF3" s="34">
         <v>4</v>
       </c>
-      <c r="CG3" s="48">
+      <c r="CG3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="49">
+      <c r="CH3" s="36">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="42">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="42">
+      <c r="CI3" s="33">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="42">
+      <c r="CK3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="42">
+      <c r="CL3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="42">
+      <c r="CN3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="42">
+      <c r="CO3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="42">
+      <c r="CQ3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="47">
+      <c r="CR3" s="34">
         <v>4</v>
       </c>
-      <c r="CS3" s="48">
+      <c r="CS3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="49">
+      <c r="CT3" s="36">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5145,6 +5145,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5160,31 +5185,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5219,330 +5219,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="32">
-        <v>2</v>
-      </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="20">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="23">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="23">
+        <v>2</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="30">
         <v>4</v>
       </c>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="29">
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="20">
         <v>5</v>
       </c>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="30"/>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="31"/>
-      <c r="BK2" s="26">
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="17">
         <v>6</v>
       </c>
-      <c r="BL2" s="27"/>
-      <c r="BM2" s="27"/>
-      <c r="BN2" s="27"/>
-      <c r="BO2" s="27"/>
-      <c r="BP2" s="27"/>
-      <c r="BQ2" s="27"/>
-      <c r="BR2" s="27"/>
-      <c r="BS2" s="27"/>
-      <c r="BT2" s="27"/>
-      <c r="BU2" s="27"/>
-      <c r="BV2" s="28"/>
-      <c r="BW2" s="26">
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="17">
         <v>7</v>
       </c>
-      <c r="BX2" s="27"/>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="27"/>
-      <c r="CA2" s="27"/>
-      <c r="CB2" s="27"/>
-      <c r="CC2" s="27"/>
-      <c r="CD2" s="27"/>
-      <c r="CE2" s="27"/>
-      <c r="CF2" s="27"/>
-      <c r="CG2" s="27"/>
-      <c r="CH2" s="28"/>
-      <c r="CI2" s="26">
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="18"/>
+      <c r="BZ2" s="18"/>
+      <c r="CA2" s="18"/>
+      <c r="CB2" s="18"/>
+      <c r="CC2" s="18"/>
+      <c r="CD2" s="18"/>
+      <c r="CE2" s="18"/>
+      <c r="CF2" s="18"/>
+      <c r="CG2" s="18"/>
+      <c r="CH2" s="19"/>
+      <c r="CI2" s="17">
         <v>8</v>
       </c>
-      <c r="CJ2" s="27"/>
-      <c r="CK2" s="27"/>
-      <c r="CL2" s="27"/>
-      <c r="CM2" s="27"/>
-      <c r="CN2" s="27"/>
-      <c r="CO2" s="27"/>
-      <c r="CP2" s="27"/>
-      <c r="CQ2" s="27"/>
-      <c r="CR2" s="27"/>
-      <c r="CS2" s="27"/>
-      <c r="CT2" s="28"/>
+      <c r="CJ2" s="18"/>
+      <c r="CK2" s="18"/>
+      <c r="CL2" s="18"/>
+      <c r="CM2" s="18"/>
+      <c r="CN2" s="18"/>
+      <c r="CO2" s="18"/>
+      <c r="CP2" s="18"/>
+      <c r="CQ2" s="18"/>
+      <c r="CR2" s="18"/>
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="19"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="43">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44">
-        <v>3</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="44">
+      <c r="C3" s="37">
+        <v>1</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="39">
         <v>4</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="42">
-        <v>1</v>
-      </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43">
-        <v>2</v>
-      </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="41">
-        <v>3</v>
-      </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="42">
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="33">
+        <v>1</v>
+      </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="38">
+        <v>2</v>
+      </c>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="37">
+        <v>3</v>
+      </c>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="33">
         <v>4</v>
       </c>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="42">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="40">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="34">
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="33">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="49">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="43">
         <v>4</v>
       </c>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="41">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="37">
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="46">
         <v>4</v>
       </c>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="33"/>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="33"/>
-      <c r="BG3" s="33"/>
-      <c r="BH3" s="33">
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42">
         <v>4</v>
       </c>
-      <c r="BI3" s="33"/>
-      <c r="BJ3" s="33"/>
-      <c r="BK3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="42">
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="42">
+      <c r="BM3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="42">
+      <c r="BN3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="42">
+      <c r="BP3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="42">
+      <c r="BQ3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="42">
+      <c r="BS3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="47">
+      <c r="BT3" s="34">
         <v>4</v>
       </c>
-      <c r="BU3" s="48">
+      <c r="BU3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="49">
+      <c r="BV3" s="36">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="42">
+      <c r="BW3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="42">
+      <c r="BY3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="42">
+      <c r="BZ3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="42">
+      <c r="CB3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="42">
+      <c r="CC3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="42">
+      <c r="CE3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="47">
+      <c r="CF3" s="34">
         <v>4</v>
       </c>
-      <c r="CG3" s="48">
+      <c r="CG3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="49">
+      <c r="CH3" s="36">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="42">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="42">
+      <c r="CI3" s="33">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="42">
+      <c r="CK3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="42">
+      <c r="CL3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="42">
+      <c r="CN3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="42">
+      <c r="CO3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="42">
+      <c r="CQ3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="47">
+      <c r="CR3" s="34">
         <v>4</v>
       </c>
-      <c r="CS3" s="48">
+      <c r="CS3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="49">
+      <c r="CT3" s="36">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7324,21 +7324,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7355,1506 +7349,6 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
-  <dimension ref="A2:CT7"/>
-  <sheetViews>
-    <sheetView topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="CC26" sqref="CC26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="14" width="8.88671875" customWidth="1"/>
-    <col min="36" max="38" width="8.88671875" customWidth="1"/>
-    <col min="48" max="50" width="8.88671875" customWidth="1"/>
-    <col min="54" max="62" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="32">
-        <v>2</v>
-      </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="20">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="23">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="29">
-        <v>5</v>
-      </c>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="30"/>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="31"/>
-      <c r="BK2" s="26">
-        <v>6</v>
-      </c>
-      <c r="BL2" s="27"/>
-      <c r="BM2" s="27"/>
-      <c r="BN2" s="27"/>
-      <c r="BO2" s="27"/>
-      <c r="BP2" s="27"/>
-      <c r="BQ2" s="27"/>
-      <c r="BR2" s="27"/>
-      <c r="BS2" s="27"/>
-      <c r="BT2" s="27"/>
-      <c r="BU2" s="27"/>
-      <c r="BV2" s="28"/>
-      <c r="BW2" s="26">
-        <v>7</v>
-      </c>
-      <c r="BX2" s="27"/>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="27"/>
-      <c r="CA2" s="27"/>
-      <c r="CB2" s="27"/>
-      <c r="CC2" s="27"/>
-      <c r="CD2" s="27"/>
-      <c r="CE2" s="27"/>
-      <c r="CF2" s="27"/>
-      <c r="CG2" s="27"/>
-      <c r="CH2" s="28"/>
-      <c r="CI2" s="26">
-        <v>8</v>
-      </c>
-      <c r="CJ2" s="27"/>
-      <c r="CK2" s="27"/>
-      <c r="CL2" s="27"/>
-      <c r="CM2" s="27"/>
-      <c r="CN2" s="27"/>
-      <c r="CO2" s="27"/>
-      <c r="CP2" s="27"/>
-      <c r="CQ2" s="27"/>
-      <c r="CR2" s="27"/>
-      <c r="CS2" s="27"/>
-      <c r="CT2" s="28"/>
-    </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="41">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="43">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44">
-        <v>3</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="44">
-        <v>4</v>
-      </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="42">
-        <v>1</v>
-      </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43">
-        <v>2</v>
-      </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="41">
-        <v>3</v>
-      </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="42">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="42">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="40">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="34">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="41">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="37">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="33"/>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="33"/>
-      <c r="BG3" s="33"/>
-      <c r="BH3" s="33">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="33"/>
-      <c r="BJ3" s="33"/>
-      <c r="BK3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="42"/>
-      <c r="BQ3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="42"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="47">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="48"/>
-      <c r="BV3" s="49"/>
-      <c r="BW3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="42"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="42"/>
-      <c r="CB3" s="42"/>
-      <c r="CC3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="42"/>
-      <c r="CE3" s="42"/>
-      <c r="CF3" s="47">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="48"/>
-      <c r="CH3" s="49"/>
-      <c r="CI3" s="42">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="42"/>
-      <c r="CK3" s="42"/>
-      <c r="CL3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="42"/>
-      <c r="CN3" s="42"/>
-      <c r="CO3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="42"/>
-      <c r="CQ3" s="42"/>
-      <c r="CR3" s="47">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="48"/>
-      <c r="CT3" s="49"/>
-    </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>2</v>
-      </c>
-      <c r="H4" s="11">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>3</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>3</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11">
-        <v>2</v>
-      </c>
-      <c r="T4" s="11">
-        <v>3</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1</v>
-      </c>
-      <c r="V4" s="10">
-        <v>2</v>
-      </c>
-      <c r="W4" s="10">
-        <v>3</v>
-      </c>
-      <c r="X4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="15">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="14">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BH4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BK4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BM4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BN4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BQ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BT4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BW4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BZ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CB4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CC4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CF4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CH4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CI4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CK4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CL4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CN4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CO4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CQ4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CR4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CS4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CT4" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
-        <v>5</v>
-      </c>
-      <c r="G5" s="9">
-        <v>5</v>
-      </c>
-      <c r="H5" s="15">
-        <v>10</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>1</v>
-      </c>
-      <c r="P5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>1</v>
-      </c>
-      <c r="R5" s="9">
-        <v>5</v>
-      </c>
-      <c r="S5" s="9">
-        <v>5</v>
-      </c>
-      <c r="T5" s="15">
-        <v>10</v>
-      </c>
-      <c r="U5" s="9">
-        <v>2</v>
-      </c>
-      <c r="V5" s="9">
-        <v>2</v>
-      </c>
-      <c r="W5" s="15">
-        <v>10</v>
-      </c>
-      <c r="X5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ5" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BP5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BZ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="9">
-        <v>2</v>
-      </c>
-      <c r="CB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2</v>
-      </c>
-      <c r="E6" s="15">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5</v>
-      </c>
-      <c r="H6" s="15">
-        <v>10</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>1</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>1</v>
-      </c>
-      <c r="R6" s="9">
-        <v>5</v>
-      </c>
-      <c r="S6" s="9">
-        <v>5</v>
-      </c>
-      <c r="T6" s="15">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9">
-        <v>2</v>
-      </c>
-      <c r="V6" s="9">
-        <v>2</v>
-      </c>
-      <c r="W6" s="15">
-        <v>10</v>
-      </c>
-      <c r="X6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="9">
-        <v>2</v>
-      </c>
-      <c r="BM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="9">
-        <v>2</v>
-      </c>
-      <c r="BP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="9">
-        <v>2</v>
-      </c>
-      <c r="BS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="9">
-        <v>2</v>
-      </c>
-      <c r="BZ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="9">
-        <v>2</v>
-      </c>
-      <c r="CB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2</v>
-      </c>
-      <c r="E7" s="15">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-      <c r="H7" s="15">
-        <v>10</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>1</v>
-      </c>
-      <c r="P7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>1</v>
-      </c>
-      <c r="R7" s="9">
-        <v>5</v>
-      </c>
-      <c r="S7" s="9">
-        <v>5</v>
-      </c>
-      <c r="T7" s="15">
-        <v>10</v>
-      </c>
-      <c r="U7" s="9">
-        <v>2</v>
-      </c>
-      <c r="V7" s="9">
-        <v>2</v>
-      </c>
-      <c r="W7" s="15">
-        <v>10</v>
-      </c>
-      <c r="X7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS7" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT7" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ7" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="9">
-        <v>2</v>
-      </c>
-      <c r="BM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="9">
-        <v>2</v>
-      </c>
-      <c r="BP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="9">
-        <v>2</v>
-      </c>
-      <c r="BS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="9">
-        <v>2</v>
-      </c>
-      <c r="BZ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="9">
-        <v>2</v>
-      </c>
-      <c r="CB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -8870,6 +7364,1506 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
+  <dimension ref="A2:CT7"/>
+  <sheetViews>
+    <sheetView topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="CG15" sqref="CG15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="14" width="8.88671875" customWidth="1"/>
+    <col min="36" max="38" width="8.88671875" customWidth="1"/>
+    <col min="48" max="50" width="8.88671875" customWidth="1"/>
+    <col min="54" max="62" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="23">
+        <v>2</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="20">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="17">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="17">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="18"/>
+      <c r="BZ2" s="18"/>
+      <c r="CA2" s="18"/>
+      <c r="CB2" s="18"/>
+      <c r="CC2" s="18"/>
+      <c r="CD2" s="18"/>
+      <c r="CE2" s="18"/>
+      <c r="CF2" s="18"/>
+      <c r="CG2" s="18"/>
+      <c r="CH2" s="19"/>
+      <c r="CI2" s="17">
+        <v>8</v>
+      </c>
+      <c r="CJ2" s="18"/>
+      <c r="CK2" s="18"/>
+      <c r="CL2" s="18"/>
+      <c r="CM2" s="18"/>
+      <c r="CN2" s="18"/>
+      <c r="CO2" s="18"/>
+      <c r="CP2" s="18"/>
+      <c r="CQ2" s="18"/>
+      <c r="CR2" s="18"/>
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="19"/>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="37">
+        <v>1</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="39">
+        <v>4</v>
+      </c>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="33">
+        <v>1</v>
+      </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="38">
+        <v>2</v>
+      </c>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="37">
+        <v>3</v>
+      </c>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="33">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="33">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="49">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="43">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="46">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="33"/>
+      <c r="BM3" s="33"/>
+      <c r="BN3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="33"/>
+      <c r="BP3" s="33"/>
+      <c r="BQ3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="33"/>
+      <c r="BS3" s="33"/>
+      <c r="BT3" s="34">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="35"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="33"/>
+      <c r="BY3" s="33"/>
+      <c r="BZ3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="33"/>
+      <c r="CB3" s="33"/>
+      <c r="CC3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="33"/>
+      <c r="CE3" s="33"/>
+      <c r="CF3" s="34">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="35"/>
+      <c r="CH3" s="36"/>
+      <c r="CI3" s="33">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="33"/>
+      <c r="CK3" s="33"/>
+      <c r="CL3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="33"/>
+      <c r="CN3" s="33"/>
+      <c r="CO3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="33"/>
+      <c r="CQ3" s="33"/>
+      <c r="CR3" s="34">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="35"/>
+      <c r="CT3" s="36"/>
+    </row>
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>3</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <v>2</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>3</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CT4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" s="15">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
+        <v>5</v>
+      </c>
+      <c r="S5" s="9">
+        <v>5</v>
+      </c>
+      <c r="T5" s="15">
+        <v>10</v>
+      </c>
+      <c r="U5" s="9">
+        <v>2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>2</v>
+      </c>
+      <c r="W5" s="15">
+        <v>10</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+      <c r="H6" s="15">
+        <v>10</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <v>5</v>
+      </c>
+      <c r="S6" s="9">
+        <v>5</v>
+      </c>
+      <c r="T6" s="15">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9">
+        <v>2</v>
+      </c>
+      <c r="V6" s="9">
+        <v>2</v>
+      </c>
+      <c r="W6" s="15">
+        <v>10</v>
+      </c>
+      <c r="X6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="15">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9">
+        <v>5</v>
+      </c>
+      <c r="S7" s="9">
+        <v>5</v>
+      </c>
+      <c r="T7" s="15">
+        <v>10</v>
+      </c>
+      <c r="U7" s="9">
+        <v>2</v>
+      </c>
+      <c r="V7" s="9">
+        <v>2</v>
+      </c>
+      <c r="W7" s="15">
+        <v>10</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -8886,15 +8880,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8904,8 +8904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5590460-C8AD-4B8B-AD99-70907047F648}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8948,54 +8948,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="32">
-        <v>2</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="20">
-        <v>3</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="27">
+        <v>3</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="29">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="20">
         <v>5</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="26">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="17">
         <v>6</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="26">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="17">
         <v>7</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="26">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="17">
         <v>8</v>
       </c>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="28"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -9284,10 +9284,10 @@
         <v>0</v>
       </c>
       <c r="AB5" s="9">
-        <v>2000</v>
-      </c>
-      <c r="AC5" s="15">
-        <v>9999</v>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>0</v>
       </c>
       <c r="AD5" s="15">
         <v>9999</v>
@@ -9295,11 +9295,11 @@
       <c r="AE5" s="9">
         <v>0</v>
       </c>
-      <c r="AF5" s="15">
-        <v>9999</v>
-      </c>
-      <c r="AG5" s="15">
-        <v>9999</v>
+      <c r="AF5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>0</v>
       </c>
       <c r="AH5" s="15">
         <v>9999</v>
@@ -9385,8 +9385,8 @@
       <c r="AA6" s="9">
         <v>2000</v>
       </c>
-      <c r="AB6" s="15">
-        <v>9999</v>
+      <c r="AB6" s="9">
+        <v>2000</v>
       </c>
       <c r="AC6" s="15">
         <v>9999</v>
@@ -9394,11 +9394,11 @@
       <c r="AD6" s="15">
         <v>9999</v>
       </c>
-      <c r="AE6" s="15">
-        <v>9999</v>
-      </c>
-      <c r="AF6" s="15">
-        <v>9999</v>
+      <c r="AE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>0</v>
       </c>
       <c r="AG6" s="15">
         <v>9999</v>
@@ -9438,54 +9438,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="32">
-        <v>2</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="20">
-        <v>3</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="27">
+        <v>3</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="29">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="20">
         <v>5</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="26">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="17">
         <v>6</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="26">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="17">
         <v>7</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="26">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="17">
         <v>8</v>
       </c>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="28"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -9928,54 +9928,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="32">
-        <v>2</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="20">
-        <v>3</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="27">
+        <v>3</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="29">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="20">
         <v>5</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="26">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="17">
         <v>6</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="26">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="17">
         <v>7</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="26">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="17">
         <v>8</v>
       </c>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="28"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>

--- a/SS_dataV7.xlsx
+++ b/SS_dataV7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277BBAFF-2629-454D-A73F-2BE01D11CC1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57F2F5E-CD73-450B-8D7D-84DCCFF483C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="-276" windowWidth="23256" windowHeight="12576" tabRatio="897" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="897" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -386,33 +386,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,6 +408,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2801,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9531EC-CA23-40AE-B9E3-0DD65FEE9D1D}">
   <dimension ref="A3:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3023,7 +3023,7 @@
   <dimension ref="A2:CT9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3158,212 +3158,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="39">
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="43">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44">
+        <v>3</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="44">
         <v>4</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="33">
-        <v>1</v>
-      </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="38">
-        <v>2</v>
-      </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="37">
-        <v>3</v>
-      </c>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="33">
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="42">
+        <v>1</v>
+      </c>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43">
+        <v>2</v>
+      </c>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="41">
+        <v>3</v>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="42">
         <v>4</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="33">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="49">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="43">
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="42">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="40">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="34">
         <v>4</v>
       </c>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="46">
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="41">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="37">
         <v>4</v>
       </c>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42">
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="33">
         <v>4</v>
       </c>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="33">
+      <c r="BI3" s="33"/>
+      <c r="BJ3" s="33"/>
+      <c r="BK3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="33">
+      <c r="BM3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="33">
+      <c r="BN3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="33">
+      <c r="BP3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="33">
+      <c r="BQ3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="33">
+      <c r="BS3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="34">
+      <c r="BT3" s="47">
         <v>4</v>
       </c>
-      <c r="BU3" s="35">
+      <c r="BU3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="36">
+      <c r="BV3" s="49">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="33">
+      <c r="BW3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="33">
+      <c r="BY3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="33">
+      <c r="BZ3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="33">
+      <c r="CB3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="33">
+      <c r="CC3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="33">
+      <c r="CE3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="34">
+      <c r="CF3" s="47">
         <v>4</v>
       </c>
-      <c r="CG3" s="35">
+      <c r="CG3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="36">
+      <c r="CH3" s="49">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="33">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="33">
+      <c r="CI3" s="42">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="33">
+      <c r="CK3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="33">
+      <c r="CL3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="33">
+      <c r="CN3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="33">
+      <c r="CO3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="33">
+      <c r="CQ3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="34">
+      <c r="CR3" s="47">
         <v>4</v>
       </c>
-      <c r="CS3" s="35">
+      <c r="CS3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="36">
+      <c r="CT3" s="49">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5145,6 +5145,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -5160,31 +5185,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5194,8 +5194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BX27" sqref="BX27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5337,212 +5337,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="39">
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="43">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44">
+        <v>3</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="44">
         <v>4</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="33">
-        <v>1</v>
-      </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="38">
-        <v>2</v>
-      </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="37">
-        <v>3</v>
-      </c>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="33">
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="42">
+        <v>1</v>
+      </c>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43">
+        <v>2</v>
+      </c>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="41">
+        <v>3</v>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="42">
         <v>4</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="33">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="49">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="43">
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="42">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="40">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="34">
         <v>4</v>
       </c>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="46">
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="41">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="37">
         <v>4</v>
       </c>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42">
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="33">
         <v>4</v>
       </c>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="33">
+      <c r="BI3" s="33"/>
+      <c r="BJ3" s="33"/>
+      <c r="BK3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="33">
+      <c r="BM3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="33">
+      <c r="BN3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="33">
+      <c r="BP3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="33">
+      <c r="BQ3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="33">
+      <c r="BS3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="34">
+      <c r="BT3" s="47">
         <v>4</v>
       </c>
-      <c r="BU3" s="35">
+      <c r="BU3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="36">
+      <c r="BV3" s="49">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="33">
+      <c r="BW3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="33">
+      <c r="BY3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="33">
+      <c r="BZ3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="33">
+      <c r="CB3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="33">
+      <c r="CC3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="33">
+      <c r="CE3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="34">
+      <c r="CF3" s="47">
         <v>4</v>
       </c>
-      <c r="CG3" s="35">
+      <c r="CG3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="36">
+      <c r="CH3" s="49">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="33">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="33">
+      <c r="CI3" s="42">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="33">
+      <c r="CK3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="33">
+      <c r="CL3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="33">
+      <c r="CN3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="33">
+      <c r="CO3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="33">
+      <c r="CQ3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="34">
+      <c r="CR3" s="47">
         <v>4</v>
       </c>
-      <c r="CS3" s="35">
+      <c r="CS3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="36">
+      <c r="CT3" s="49">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7324,15 +7324,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7349,6 +7355,1506 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
+  <dimension ref="A2:CT7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="14" width="8.88671875" customWidth="1"/>
+    <col min="36" max="38" width="8.88671875" customWidth="1"/>
+    <col min="48" max="50" width="8.88671875" customWidth="1"/>
+    <col min="54" max="62" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="23">
+        <v>2</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="20">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="17">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="17">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="18"/>
+      <c r="BZ2" s="18"/>
+      <c r="CA2" s="18"/>
+      <c r="CB2" s="18"/>
+      <c r="CC2" s="18"/>
+      <c r="CD2" s="18"/>
+      <c r="CE2" s="18"/>
+      <c r="CF2" s="18"/>
+      <c r="CG2" s="18"/>
+      <c r="CH2" s="19"/>
+      <c r="CI2" s="17">
+        <v>8</v>
+      </c>
+      <c r="CJ2" s="18"/>
+      <c r="CK2" s="18"/>
+      <c r="CL2" s="18"/>
+      <c r="CM2" s="18"/>
+      <c r="CN2" s="18"/>
+      <c r="CO2" s="18"/>
+      <c r="CP2" s="18"/>
+      <c r="CQ2" s="18"/>
+      <c r="CR2" s="18"/>
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="19"/>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="43">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44">
+        <v>3</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="44">
+        <v>4</v>
+      </c>
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="42">
+        <v>1</v>
+      </c>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43">
+        <v>2</v>
+      </c>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="41">
+        <v>3</v>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="42">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="42">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="40">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="34">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="41">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="37">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="33">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="33"/>
+      <c r="BJ3" s="33"/>
+      <c r="BK3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="47">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="48"/>
+      <c r="BV3" s="49"/>
+      <c r="BW3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="42"/>
+      <c r="CC3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="47">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="48"/>
+      <c r="CH3" s="49"/>
+      <c r="CI3" s="42">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="42"/>
+      <c r="CK3" s="42"/>
+      <c r="CL3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="42"/>
+      <c r="CN3" s="42"/>
+      <c r="CO3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="42"/>
+      <c r="CQ3" s="42"/>
+      <c r="CR3" s="47">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="48"/>
+      <c r="CT3" s="49"/>
+    </row>
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>3</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <v>2</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>3</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CT4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" s="15">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
+        <v>5</v>
+      </c>
+      <c r="S5" s="9">
+        <v>5</v>
+      </c>
+      <c r="T5" s="15">
+        <v>10</v>
+      </c>
+      <c r="U5" s="9">
+        <v>2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>2</v>
+      </c>
+      <c r="W5" s="15">
+        <v>10</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+      <c r="H6" s="15">
+        <v>10</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <v>5</v>
+      </c>
+      <c r="S6" s="9">
+        <v>5</v>
+      </c>
+      <c r="T6" s="15">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9">
+        <v>2</v>
+      </c>
+      <c r="V6" s="9">
+        <v>2</v>
+      </c>
+      <c r="W6" s="15">
+        <v>10</v>
+      </c>
+      <c r="X6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="15">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9">
+        <v>5</v>
+      </c>
+      <c r="S7" s="9">
+        <v>5</v>
+      </c>
+      <c r="T7" s="15">
+        <v>10</v>
+      </c>
+      <c r="U7" s="9">
+        <v>2</v>
+      </c>
+      <c r="V7" s="9">
+        <v>2</v>
+      </c>
+      <c r="W7" s="15">
+        <v>10</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -7364,1506 +8870,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
-  <dimension ref="A2:CT7"/>
-  <sheetViews>
-    <sheetView topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="CG15" sqref="CG15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="14" width="8.88671875" customWidth="1"/>
-    <col min="36" max="38" width="8.88671875" customWidth="1"/>
-    <col min="48" max="50" width="8.88671875" customWidth="1"/>
-    <col min="54" max="62" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="23">
-        <v>2</v>
-      </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="27">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="30">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="20">
-        <v>5</v>
-      </c>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="22"/>
-      <c r="BK2" s="17">
-        <v>6</v>
-      </c>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="17">
-        <v>7</v>
-      </c>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="18"/>
-      <c r="CB2" s="18"/>
-      <c r="CC2" s="18"/>
-      <c r="CD2" s="18"/>
-      <c r="CE2" s="18"/>
-      <c r="CF2" s="18"/>
-      <c r="CG2" s="18"/>
-      <c r="CH2" s="19"/>
-      <c r="CI2" s="17">
-        <v>8</v>
-      </c>
-      <c r="CJ2" s="18"/>
-      <c r="CK2" s="18"/>
-      <c r="CL2" s="18"/>
-      <c r="CM2" s="18"/>
-      <c r="CN2" s="18"/>
-      <c r="CO2" s="18"/>
-      <c r="CP2" s="18"/>
-      <c r="CQ2" s="18"/>
-      <c r="CR2" s="18"/>
-      <c r="CS2" s="18"/>
-      <c r="CT2" s="19"/>
-    </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="37">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="39">
-        <v>4</v>
-      </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="33">
-        <v>1</v>
-      </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="38">
-        <v>2</v>
-      </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="37">
-        <v>3</v>
-      </c>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="33">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="33">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="49">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="43">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="46">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="33"/>
-      <c r="BM3" s="33"/>
-      <c r="BN3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="33"/>
-      <c r="BP3" s="33"/>
-      <c r="BQ3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="33"/>
-      <c r="BS3" s="33"/>
-      <c r="BT3" s="34">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="35"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="33"/>
-      <c r="BY3" s="33"/>
-      <c r="BZ3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="33"/>
-      <c r="CB3" s="33"/>
-      <c r="CC3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="33"/>
-      <c r="CE3" s="33"/>
-      <c r="CF3" s="34">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="35"/>
-      <c r="CH3" s="36"/>
-      <c r="CI3" s="33">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="33"/>
-      <c r="CK3" s="33"/>
-      <c r="CL3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="33"/>
-      <c r="CN3" s="33"/>
-      <c r="CO3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="33"/>
-      <c r="CQ3" s="33"/>
-      <c r="CR3" s="34">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="35"/>
-      <c r="CT3" s="36"/>
-    </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>2</v>
-      </c>
-      <c r="H4" s="11">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>3</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>3</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11">
-        <v>2</v>
-      </c>
-      <c r="T4" s="11">
-        <v>3</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1</v>
-      </c>
-      <c r="V4" s="10">
-        <v>2</v>
-      </c>
-      <c r="W4" s="10">
-        <v>3</v>
-      </c>
-      <c r="X4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="15">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="14">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BH4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BK4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BM4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BN4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BQ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BT4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BW4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BZ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CB4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CC4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CF4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CH4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CI4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CK4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CL4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CN4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CO4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CQ4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CR4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CS4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CT4" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
-        <v>5</v>
-      </c>
-      <c r="G5" s="9">
-        <v>5</v>
-      </c>
-      <c r="H5" s="15">
-        <v>10</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>1</v>
-      </c>
-      <c r="P5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>1</v>
-      </c>
-      <c r="R5" s="9">
-        <v>5</v>
-      </c>
-      <c r="S5" s="9">
-        <v>5</v>
-      </c>
-      <c r="T5" s="15">
-        <v>10</v>
-      </c>
-      <c r="U5" s="9">
-        <v>2</v>
-      </c>
-      <c r="V5" s="9">
-        <v>2</v>
-      </c>
-      <c r="W5" s="15">
-        <v>10</v>
-      </c>
-      <c r="X5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ5" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BP5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BZ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="9">
-        <v>2</v>
-      </c>
-      <c r="CB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2</v>
-      </c>
-      <c r="E6" s="15">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5</v>
-      </c>
-      <c r="H6" s="15">
-        <v>10</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>1</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>1</v>
-      </c>
-      <c r="R6" s="9">
-        <v>5</v>
-      </c>
-      <c r="S6" s="9">
-        <v>5</v>
-      </c>
-      <c r="T6" s="15">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9">
-        <v>2</v>
-      </c>
-      <c r="V6" s="9">
-        <v>2</v>
-      </c>
-      <c r="W6" s="15">
-        <v>10</v>
-      </c>
-      <c r="X6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="9">
-        <v>2</v>
-      </c>
-      <c r="BM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="9">
-        <v>2</v>
-      </c>
-      <c r="BP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="9">
-        <v>2</v>
-      </c>
-      <c r="BS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="9">
-        <v>2</v>
-      </c>
-      <c r="BZ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="9">
-        <v>2</v>
-      </c>
-      <c r="CB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2</v>
-      </c>
-      <c r="E7" s="15">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-      <c r="H7" s="15">
-        <v>10</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>1</v>
-      </c>
-      <c r="P7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>1</v>
-      </c>
-      <c r="R7" s="9">
-        <v>5</v>
-      </c>
-      <c r="S7" s="9">
-        <v>5</v>
-      </c>
-      <c r="T7" s="15">
-        <v>10</v>
-      </c>
-      <c r="U7" s="9">
-        <v>2</v>
-      </c>
-      <c r="V7" s="9">
-        <v>2</v>
-      </c>
-      <c r="W7" s="15">
-        <v>10</v>
-      </c>
-      <c r="X7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS7" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT7" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ7" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="9">
-        <v>2</v>
-      </c>
-      <c r="BM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="9">
-        <v>2</v>
-      </c>
-      <c r="BP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="9">
-        <v>2</v>
-      </c>
-      <c r="BS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="9">
-        <v>2</v>
-      </c>
-      <c r="BZ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="9">
-        <v>2</v>
-      </c>
-      <c r="CB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -8880,21 +8886,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
